--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_9_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_9_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3235034.047903915</v>
+        <v>3228458.335645279</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4895991.679432717</v>
+        <v>4895991.679432716</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>963985.3264850876</v>
+        <v>963985.3264850882</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8445141.916582284</v>
+        <v>8445141.916582286</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>70.34400780127524</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>126.358590200387</v>
       </c>
       <c r="E3" t="n">
-        <v>30.95184914057959</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -946,13 +946,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="Y5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>114.0654954417817</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>183.8842973311964</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>108.1960350243787</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>241.0142888776591</v>
@@ -1141,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>202.2946864288972</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90.96447429313291</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>145.1806198985548</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>299.2434379445492</v>
       </c>
       <c r="I11" t="n">
-        <v>59.02761253284902</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.5024607932131</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T11" t="n">
-        <v>205.8994334372419</v>
+        <v>205.8994334372418</v>
       </c>
       <c r="U11" t="n">
         <v>251.0313837381846</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>146.5602426058027</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S13" t="n">
-        <v>193.3074931070767</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U13" t="n">
-        <v>278.1268005813843</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>55.71000265055311</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>299.2434379445492</v>
       </c>
       <c r="I14" t="n">
-        <v>59.02761253284824</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>193.3074931070767</v>
+        <v>155.2974660309534</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U16" t="n">
-        <v>70.03052240255255</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>299.2434379445492</v>
       </c>
       <c r="I17" t="n">
-        <v>59.02761253284902</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>119.5024607932143</v>
       </c>
       <c r="T17" t="n">
-        <v>205.8994334372427</v>
+        <v>205.8994334372419</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0313837381831</v>
+        <v>251.0313837381846</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>12.92737279166301</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>193.3074931070767</v>
+        <v>155.2974660309534</v>
       </c>
       <c r="T19" t="n">
         <v>220.4164922362883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>299.2434379445492</v>
       </c>
       <c r="I20" t="n">
-        <v>59.02761253284902</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.5024607932143</v>
+        <v>119.502460793214</v>
       </c>
       <c r="T20" t="n">
         <v>205.8994334372419</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.06165794823691</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>193.3074931070767</v>
+        <v>155.2974660309534</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U22" t="n">
         <v>286.222913222125</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.91405280143607</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>299.2434379445492</v>
       </c>
       <c r="I23" t="n">
-        <v>59.02761253284902</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>58.71807531657466</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>26.80331810248337</v>
       </c>
       <c r="H25" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>299.2434379445492</v>
       </c>
       <c r="I26" t="n">
-        <v>59.02761253284902</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>205.8994334372419</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0313837381846</v>
+        <v>251.0313837381849</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>93.42353190509623</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.2974660309543</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.222913222125</v>
@@ -2812,7 +2812,7 @@
         <v>299.2434379445492</v>
       </c>
       <c r="I29" t="n">
-        <v>59.02761253284902</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>119.5024607932143</v>
       </c>
       <c r="T29" t="n">
-        <v>205.8994334372419</v>
+        <v>205.8994334372427</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0313837381846</v>
+        <v>251.031383738184</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.06165794823691</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>193.3074931070767</v>
       </c>
       <c r="T31" t="n">
         <v>220.4164922362883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.222913222125</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>120.7824623429389</v>
       </c>
       <c r="W31" t="n">
-        <v>162.7224331638942</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>299.2434379445492</v>
       </c>
       <c r="I32" t="n">
-        <v>59.02761253284902</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>205.8994334372419</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0313837381849</v>
+        <v>251.0313837381858</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>286.222913222125</v>
       </c>
       <c r="V34" t="n">
-        <v>118.6429651869929</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>34.01438367016912</v>
       </c>
     </row>
     <row r="35">
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
         <v>411.3743728944864</v>
       </c>
       <c r="H35" t="n">
-        <v>299.2434379445492</v>
+        <v>299.2434379445493</v>
       </c>
       <c r="I35" t="n">
-        <v>59.02761253284902</v>
+        <v>59.0276125328491</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>119.5024607932143</v>
+        <v>119.502460793214</v>
       </c>
       <c r="T35" t="n">
-        <v>205.8994334372419</v>
+        <v>205.899433437242</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0313837381846</v>
+        <v>251.0313837381847</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>113.4450488490025</v>
+        <v>150.4513133122311</v>
       </c>
       <c r="H37" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S37" t="n">
         <v>193.3074931070767</v>
@@ -3483,13 +3483,13 @@
         <v>286.222913222125</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
         <v>411.3743728944864</v>
       </c>
       <c r="H38" t="n">
-        <v>299.2434379445492</v>
+        <v>299.2434379445493</v>
       </c>
       <c r="I38" t="n">
-        <v>59.02761253284902</v>
+        <v>59.02761253284911</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>119.5024607932143</v>
+        <v>119.5024607932149</v>
       </c>
       <c r="T38" t="n">
-        <v>205.8994334372419</v>
+        <v>205.899433437242</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0313837381846</v>
+        <v>251.031383738184</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>63.62407811755912</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>146.5602426058027</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>193.3074931070767</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>220.4164922362883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.222913222125</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>93.49518883078895</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>299.2434379445492</v>
       </c>
       <c r="I41" t="n">
-        <v>59.02761253284902</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>155.2974660309534</v>
       </c>
       <c r="T43" t="n">
         <v>220.4164922362883</v>
       </c>
       <c r="U43" t="n">
-        <v>252.3747818142164</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3997,7 +3997,7 @@
         <v>299.2434379445492</v>
       </c>
       <c r="I44" t="n">
-        <v>59.02761253284902</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>89.63797036467726</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>98.06165794823691</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S46" t="n">
         <v>193.3074931070767</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U46" t="n">
-        <v>207.5534713098714</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>333.7844730889342</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="C2" t="n">
-        <v>333.7844730889342</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="D2" t="n">
-        <v>333.7844730889342</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E2" t="n">
-        <v>333.7844730889342</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>90.33569644483418</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>577.2332497330343</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="V2" t="n">
-        <v>577.2332497330343</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="W2" t="n">
-        <v>577.2332497330343</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="X2" t="n">
-        <v>577.2332497330343</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="Y2" t="n">
-        <v>577.2332497330343</v>
+        <v>784.1002736601483</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.29976984439196</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C3" t="n">
-        <v>51.29976984439196</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="D3" t="n">
-        <v>51.29976984439196</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>51.29976984439196</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4479,13 +4479,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.6974622895962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C5" t="n">
-        <v>761.6974622895962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D5" t="n">
-        <v>761.6974622895962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>761.6974622895962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>518.2486856454962</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y5" t="n">
-        <v>761.6974622895962</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>485.4562706347935</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C6" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>338.9217126616785</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
         <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4682,16 +4682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347935</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="X6" t="n">
-        <v>485.4562706347935</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y6" t="n">
-        <v>485.4562706347935</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="7">
@@ -4749,25 +4749,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
         <v>41.77557929797318</v>
@@ -4789,19 +4789,19 @@
         <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>467.067986854209</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F8" t="n">
-        <v>223.6192102101089</v>
+        <v>216.6737094609055</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>201.2163988395569</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4843,13 +4843,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>362.4348659156472</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C9" t="n">
-        <v>362.4348659156472</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D9" t="n">
-        <v>362.4348659156472</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E9" t="n">
-        <v>362.4348659156472</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4892,13 +4892,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>454.3181732824481</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>454.3181732824481</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>454.3181732824481</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>454.3181732824481</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5029,43 +5029,43 @@
         <v>1284.685408066336</v>
       </c>
       <c r="F11" t="n">
-        <v>873.6995032767283</v>
+        <v>873.6995032767284</v>
       </c>
       <c r="G11" t="n">
-        <v>458.1698336863379</v>
+        <v>458.169833686338</v>
       </c>
       <c r="H11" t="n">
         <v>155.9037347524499</v>
       </c>
       <c r="I11" t="n">
-        <v>96.279883709168</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="J11" t="n">
-        <v>247.1253245823087</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K11" t="n">
-        <v>844.8460144959278</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L11" t="n">
-        <v>1638.648011954867</v>
+        <v>1392.569058570274</v>
       </c>
       <c r="M11" t="n">
-        <v>2093.493830713384</v>
+        <v>2292.433275486695</v>
       </c>
       <c r="N11" t="n">
         <v>2854.604825659706</v>
       </c>
       <c r="O11" t="n">
-        <v>3659.066167834895</v>
+        <v>3659.066167834896</v>
       </c>
       <c r="P11" t="n">
-        <v>4307.980928602946</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q11" t="n">
-        <v>4718.067129459337</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R11" t="n">
-        <v>4813.9941854584</v>
+        <v>4813.994185458401</v>
       </c>
       <c r="S11" t="n">
         <v>4693.284629101619</v>
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>972.1135818748972</v>
+        <v>972.1135818748975</v>
       </c>
       <c r="C12" t="n">
-        <v>797.6605525937703</v>
+        <v>797.6605525937705</v>
       </c>
       <c r="D12" t="n">
-        <v>648.726142932519</v>
+        <v>648.7261429325192</v>
       </c>
       <c r="E12" t="n">
-        <v>489.4886879270636</v>
+        <v>489.4886879270637</v>
       </c>
       <c r="F12" t="n">
         <v>342.9541299539486</v>
@@ -5117,28 +5117,28 @@
         <v>113.4818523776181</v>
       </c>
       <c r="I12" t="n">
-        <v>96.279883709168</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="J12" t="n">
-        <v>167.304547941494</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K12" t="n">
-        <v>628.6724211239937</v>
+        <v>491.6819614685455</v>
       </c>
       <c r="L12" t="n">
-        <v>943.3109173861642</v>
+        <v>806.3204577307159</v>
       </c>
       <c r="M12" t="n">
-        <v>1329.836070157271</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N12" t="n">
-        <v>1741.000038496489</v>
+        <v>1604.009578841041</v>
       </c>
       <c r="O12" t="n">
-        <v>2094.914946926821</v>
+        <v>1957.924487271373</v>
       </c>
       <c r="P12" t="n">
-        <v>2473.989355903587</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q12" t="n">
         <v>2601.025026013057</v>
@@ -5156,7 +5156,7 @@
         <v>2045.330182825396</v>
       </c>
       <c r="V12" t="n">
-        <v>1810.178074593653</v>
+        <v>1810.178074593654</v>
       </c>
       <c r="W12" t="n">
         <v>1555.940717865452</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.5248833899046</v>
+        <v>494.7038602838572</v>
       </c>
       <c r="C13" t="n">
-        <v>810.5248833899046</v>
+        <v>494.7038602838572</v>
       </c>
       <c r="D13" t="n">
-        <v>810.5248833899046</v>
+        <v>494.7038602838572</v>
       </c>
       <c r="E13" t="n">
-        <v>662.6117898075115</v>
+        <v>494.7038602838572</v>
       </c>
       <c r="F13" t="n">
-        <v>515.7218423096011</v>
+        <v>347.8139127859469</v>
       </c>
       <c r="G13" t="n">
-        <v>347.8139127859468</v>
+        <v>347.8139127859469</v>
       </c>
       <c r="H13" t="n">
-        <v>199.7732636891764</v>
+        <v>199.7732636891765</v>
       </c>
       <c r="I13" t="n">
-        <v>96.279883709168</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="J13" t="n">
         <v>127.1909995926188</v>
@@ -5205,7 +5205,7 @@
         <v>307.8242952223059</v>
       </c>
       <c r="L13" t="n">
-        <v>594.4991583642275</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M13" t="n">
         <v>907.146729860116</v>
@@ -5217,34 +5217,34 @@
         <v>1488.712387389159</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.008454575988</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q13" t="n">
-        <v>1757.786774508076</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R13" t="n">
-        <v>1757.786774508076</v>
+        <v>1658.734594762381</v>
       </c>
       <c r="S13" t="n">
-        <v>1562.526680460523</v>
+        <v>1658.734594762381</v>
       </c>
       <c r="T13" t="n">
-        <v>1562.526680460523</v>
+        <v>1436.091673311585</v>
       </c>
       <c r="U13" t="n">
-        <v>1281.590518257105</v>
+        <v>1436.091673311585</v>
       </c>
       <c r="V13" t="n">
-        <v>1281.590518257105</v>
+        <v>1181.407185105698</v>
       </c>
       <c r="W13" t="n">
-        <v>992.1733482201444</v>
+        <v>1125.134455155644</v>
       </c>
       <c r="X13" t="n">
-        <v>992.1733482201444</v>
+        <v>897.1449042576271</v>
       </c>
       <c r="Y13" t="n">
-        <v>992.1733482201444</v>
+        <v>676.352325114097</v>
       </c>
     </row>
     <row r="14">
@@ -5260,25 +5260,25 @@
         <v>2028.73935927133</v>
       </c>
       <c r="D14" t="n">
-        <v>1670.473660664579</v>
+        <v>1670.47366066458</v>
       </c>
       <c r="E14" t="n">
-        <v>1284.685408066335</v>
+        <v>1284.685408066336</v>
       </c>
       <c r="F14" t="n">
-        <v>873.6995032767275</v>
+        <v>873.6995032767283</v>
       </c>
       <c r="G14" t="n">
-        <v>458.1698336863371</v>
+        <v>458.169833686338</v>
       </c>
       <c r="H14" t="n">
-        <v>155.9037347524491</v>
+        <v>155.9037347524499</v>
       </c>
       <c r="I14" t="n">
-        <v>96.279883709168</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="J14" t="n">
-        <v>414.5309736026618</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K14" t="n">
         <v>1012.251663516281</v>
@@ -5287,28 +5287,28 @@
         <v>1806.05366097522</v>
       </c>
       <c r="M14" t="n">
-        <v>2705.917877891641</v>
+        <v>2260.899479733737</v>
       </c>
       <c r="N14" t="n">
-        <v>3172.737385903167</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O14" t="n">
-        <v>3659.066167834895</v>
+        <v>3659.066167834896</v>
       </c>
       <c r="P14" t="n">
-        <v>4307.980928602946</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q14" t="n">
-        <v>4718.067129459337</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R14" t="n">
-        <v>4813.9941854584</v>
+        <v>4813.994185458401</v>
       </c>
       <c r="S14" t="n">
         <v>4693.284629101619</v>
       </c>
       <c r="T14" t="n">
-        <v>4485.305403407435</v>
+        <v>4485.305403407436</v>
       </c>
       <c r="U14" t="n">
         <v>4231.73834912644</v>
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>972.1135818748972</v>
+        <v>972.1135818748975</v>
       </c>
       <c r="C15" t="n">
-        <v>797.6605525937703</v>
+        <v>797.6605525937705</v>
       </c>
       <c r="D15" t="n">
-        <v>648.726142932519</v>
+        <v>648.7261429325192</v>
       </c>
       <c r="E15" t="n">
-        <v>489.4886879270636</v>
+        <v>489.4886879270637</v>
       </c>
       <c r="F15" t="n">
         <v>342.9541299539486</v>
@@ -5354,28 +5354,28 @@
         <v>113.4818523776181</v>
       </c>
       <c r="I15" t="n">
-        <v>96.279883709168</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="J15" t="n">
         <v>292.1346729284988</v>
       </c>
       <c r="K15" t="n">
-        <v>535.055465780719</v>
+        <v>491.6819614685455</v>
       </c>
       <c r="L15" t="n">
-        <v>849.6939620428896</v>
+        <v>806.3204577307159</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.219114813997</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N15" t="n">
-        <v>1647.383083153214</v>
+        <v>1855.359598011705</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.297991583547</v>
+        <v>2209.274506442037</v>
       </c>
       <c r="P15" t="n">
-        <v>2266.012841045097</v>
+        <v>2473.989355903587</v>
       </c>
       <c r="Q15" t="n">
         <v>2601.025026013057</v>
@@ -5393,7 +5393,7 @@
         <v>2045.330182825396</v>
       </c>
       <c r="V15" t="n">
-        <v>1810.178074593653</v>
+        <v>1810.178074593654</v>
       </c>
       <c r="W15" t="n">
         <v>1555.940717865452</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>792.733593278586</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="C16" t="n">
-        <v>792.733593278586</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="D16" t="n">
-        <v>642.6169538662502</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="E16" t="n">
-        <v>494.7038602838571</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="F16" t="n">
-        <v>347.8139127859468</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="G16" t="n">
-        <v>347.8139127859468</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="H16" t="n">
-        <v>199.7732636891764</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="I16" t="n">
-        <v>96.279883709168</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="J16" t="n">
         <v>127.1909995926188</v>
@@ -5442,7 +5442,7 @@
         <v>307.8242952223059</v>
       </c>
       <c r="L16" t="n">
-        <v>594.4991583642275</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M16" t="n">
         <v>907.146729860116</v>
@@ -5454,34 +5454,34 @@
         <v>1488.712387389159</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.008454575988</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q16" t="n">
-        <v>1757.786774508076</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R16" t="n">
-        <v>1757.786774508076</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S16" t="n">
-        <v>1562.526680460523</v>
+        <v>1600.920647204082</v>
       </c>
       <c r="T16" t="n">
-        <v>1562.526680460523</v>
+        <v>1378.277725753285</v>
       </c>
       <c r="U16" t="n">
-        <v>1491.788779043804</v>
+        <v>1089.163671993563</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.788779043804</v>
+        <v>834.4791837876762</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.371609006843</v>
+        <v>545.0620137507156</v>
       </c>
       <c r="X16" t="n">
-        <v>974.3820581088257</v>
+        <v>317.0724628526982</v>
       </c>
       <c r="Y16" t="n">
-        <v>974.3820581088257</v>
+        <v>96.27988370916803</v>
       </c>
     </row>
     <row r="17">
@@ -5497,55 +5497,55 @@
         <v>2028.739359271331</v>
       </c>
       <c r="D17" t="n">
-        <v>1670.47366066458</v>
+        <v>1670.473660664581</v>
       </c>
       <c r="E17" t="n">
-        <v>1284.685408066336</v>
+        <v>1284.685408066337</v>
       </c>
       <c r="F17" t="n">
-        <v>873.6995032767283</v>
+        <v>873.6995032767286</v>
       </c>
       <c r="G17" t="n">
-        <v>458.1698336863379</v>
+        <v>458.1698336863381</v>
       </c>
       <c r="H17" t="n">
-        <v>155.9037347524499</v>
+        <v>155.90373475245</v>
       </c>
       <c r="I17" t="n">
-        <v>96.279883709168</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="J17" t="n">
-        <v>247.1253245823087</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K17" t="n">
-        <v>844.8460144959278</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L17" t="n">
-        <v>1638.648011954867</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M17" t="n">
-        <v>2165.00370323362</v>
+        <v>2387.785317648181</v>
       </c>
       <c r="N17" t="n">
-        <v>3064.79666641301</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O17" t="n">
-        <v>3869.2580085882</v>
+        <v>3659.066167834896</v>
       </c>
       <c r="P17" t="n">
-        <v>4518.172769356251</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q17" t="n">
-        <v>4718.067129459337</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R17" t="n">
-        <v>4813.9941854584</v>
+        <v>4813.994185458401</v>
       </c>
       <c r="S17" t="n">
         <v>4693.284629101619</v>
       </c>
       <c r="T17" t="n">
-        <v>4485.305403407434</v>
+        <v>4485.305403407436</v>
       </c>
       <c r="U17" t="n">
         <v>4231.738349126441</v>
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>972.1135818748972</v>
+        <v>972.1135818748975</v>
       </c>
       <c r="C18" t="n">
-        <v>797.6605525937703</v>
+        <v>797.6605525937705</v>
       </c>
       <c r="D18" t="n">
-        <v>648.726142932519</v>
+        <v>648.7261429325192</v>
       </c>
       <c r="E18" t="n">
-        <v>489.4886879270636</v>
+        <v>489.4886879270637</v>
       </c>
       <c r="F18" t="n">
         <v>342.9541299539486</v>
@@ -5591,25 +5591,25 @@
         <v>113.4818523776181</v>
       </c>
       <c r="I18" t="n">
-        <v>96.279883709168</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="J18" t="n">
         <v>292.1346729284988</v>
       </c>
       <c r="K18" t="n">
-        <v>535.055465780719</v>
+        <v>491.6819614685455</v>
       </c>
       <c r="L18" t="n">
-        <v>849.6939620428896</v>
+        <v>806.3204577307159</v>
       </c>
       <c r="M18" t="n">
-        <v>1236.219114813997</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N18" t="n">
-        <v>1647.383083153214</v>
+        <v>1604.009578841041</v>
       </c>
       <c r="O18" t="n">
-        <v>2001.297991583547</v>
+        <v>1957.924487271373</v>
       </c>
       <c r="P18" t="n">
         <v>2266.012841045097</v>
@@ -5630,7 +5630,7 @@
         <v>2045.330182825396</v>
       </c>
       <c r="V18" t="n">
-        <v>1810.178074593653</v>
+        <v>1810.178074593654</v>
       </c>
       <c r="W18" t="n">
         <v>1555.940717865452</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>891.1016289681796</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="C19" t="n">
-        <v>722.1654460402727</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="D19" t="n">
-        <v>572.048806627937</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="E19" t="n">
-        <v>424.1357130455439</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="F19" t="n">
-        <v>277.2457655476335</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="G19" t="n">
-        <v>109.3378360239791</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="H19" t="n">
-        <v>109.3378360239791</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="I19" t="n">
-        <v>96.279883709168</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="J19" t="n">
         <v>127.1909995926188</v>
@@ -5679,7 +5679,7 @@
         <v>307.8242952223059</v>
       </c>
       <c r="L19" t="n">
-        <v>594.4991583642275</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M19" t="n">
         <v>907.146729860116</v>
@@ -5691,34 +5691,34 @@
         <v>1488.712387389159</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.008454575988</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q19" t="n">
-        <v>1757.786774508076</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R19" t="n">
-        <v>1757.786774508076</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S19" t="n">
-        <v>1562.526680460523</v>
+        <v>1600.920647204082</v>
       </c>
       <c r="T19" t="n">
-        <v>1339.883759009727</v>
+        <v>1378.277725753285</v>
       </c>
       <c r="U19" t="n">
-        <v>1339.883759009727</v>
+        <v>1089.163671993563</v>
       </c>
       <c r="V19" t="n">
-        <v>1339.883759009727</v>
+        <v>834.4791837876762</v>
       </c>
       <c r="W19" t="n">
-        <v>1339.883759009727</v>
+        <v>545.0620137507156</v>
       </c>
       <c r="X19" t="n">
-        <v>1111.89420811171</v>
+        <v>317.0724628526982</v>
       </c>
       <c r="Y19" t="n">
-        <v>891.1016289681796</v>
+        <v>96.27988370916803</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1284.685408066336</v>
       </c>
       <c r="F20" t="n">
-        <v>873.6995032767283</v>
+        <v>873.6995032767284</v>
       </c>
       <c r="G20" t="n">
-        <v>458.1698336863379</v>
+        <v>458.169833686338</v>
       </c>
       <c r="H20" t="n">
         <v>155.9037347524499</v>
@@ -5752,28 +5752,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J20" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K20" t="n">
-        <v>523.9420560504748</v>
+        <v>691.3477050708276</v>
       </c>
       <c r="L20" t="n">
-        <v>1317.744053509414</v>
+        <v>1485.149702529767</v>
       </c>
       <c r="M20" t="n">
-        <v>2217.608270425835</v>
+        <v>2385.013919446188</v>
       </c>
       <c r="N20" t="n">
-        <v>3117.401233605225</v>
+        <v>3284.806882625578</v>
       </c>
       <c r="O20" t="n">
-        <v>3921.862575780414</v>
+        <v>4089.268224800767</v>
       </c>
       <c r="P20" t="n">
-        <v>4570.777336548465</v>
+        <v>4419.60226447905</v>
       </c>
       <c r="Q20" t="n">
-        <v>4770.671696651551</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R20" t="n">
         <v>4813.994185458401</v>
@@ -5834,22 +5834,22 @@
         <v>292.1346729284988</v>
       </c>
       <c r="K21" t="n">
-        <v>491.6819614685455</v>
+        <v>743.0319806392098</v>
       </c>
       <c r="L21" t="n">
-        <v>806.320457730716</v>
+        <v>1057.67047690138</v>
       </c>
       <c r="M21" t="n">
-        <v>1192.845610501823</v>
+        <v>1444.195629672487</v>
       </c>
       <c r="N21" t="n">
-        <v>1604.009578841041</v>
+        <v>1855.359598011705</v>
       </c>
       <c r="O21" t="n">
-        <v>1957.924487271373</v>
+        <v>2209.274506442037</v>
       </c>
       <c r="P21" t="n">
-        <v>2266.012841045097</v>
+        <v>2473.989355903587</v>
       </c>
       <c r="Q21" t="n">
         <v>2601.025026013057</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>689.2402132985776</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="C22" t="n">
-        <v>689.2402132985776</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="D22" t="n">
-        <v>539.1235738862418</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="E22" t="n">
-        <v>391.2104803038487</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="F22" t="n">
-        <v>244.3205328059384</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="G22" t="n">
-        <v>244.3205328059384</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="H22" t="n">
         <v>96.27988370916803</v>
@@ -5910,7 +5910,7 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J22" t="n">
-        <v>127.1909995926189</v>
+        <v>127.1909995926188</v>
       </c>
       <c r="K22" t="n">
         <v>307.8242952223059</v>
@@ -5928,34 +5928,34 @@
         <v>1488.712387389159</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.008454575988</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q22" t="n">
-        <v>1757.786774508076</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R22" t="n">
-        <v>1658.734594762382</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S22" t="n">
-        <v>1463.47450071483</v>
+        <v>1600.920647204082</v>
       </c>
       <c r="T22" t="n">
-        <v>1463.47450071483</v>
+        <v>1378.277725753285</v>
       </c>
       <c r="U22" t="n">
-        <v>1174.360446955107</v>
+        <v>1089.163671993563</v>
       </c>
       <c r="V22" t="n">
-        <v>1174.360446955107</v>
+        <v>834.4791837876762</v>
       </c>
       <c r="W22" t="n">
-        <v>884.9432769181467</v>
+        <v>545.0620137507156</v>
       </c>
       <c r="X22" t="n">
-        <v>884.9432769181467</v>
+        <v>317.0724628526982</v>
       </c>
       <c r="Y22" t="n">
-        <v>870.8886781288173</v>
+        <v>96.27988370916803</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J23" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K23" t="n">
-        <v>789.9182099480292</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L23" t="n">
-        <v>1583.720207406969</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M23" t="n">
-        <v>2483.58442432339</v>
+        <v>2387.785317648181</v>
       </c>
       <c r="N23" t="n">
-        <v>3383.377387502779</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O23" t="n">
-        <v>4187.838729677968</v>
+        <v>3659.066167834896</v>
       </c>
       <c r="P23" t="n">
-        <v>4518.172769356252</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q23" t="n">
         <v>4718.067129459338</v>
@@ -6068,28 +6068,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J24" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K24" t="n">
-        <v>366.8518364815408</v>
+        <v>491.6819614685455</v>
       </c>
       <c r="L24" t="n">
-        <v>681.4903327437113</v>
+        <v>806.3204577307159</v>
       </c>
       <c r="M24" t="n">
-        <v>1444.195629672487</v>
+        <v>1206.180650995792</v>
       </c>
       <c r="N24" t="n">
-        <v>1855.359598011705</v>
+        <v>1617.34461933501</v>
       </c>
       <c r="O24" t="n">
-        <v>2209.274506442037</v>
+        <v>1971.259527765342</v>
       </c>
       <c r="P24" t="n">
-        <v>2473.989355903587</v>
+        <v>2235.974377226892</v>
       </c>
       <c r="Q24" t="n">
-        <v>2601.025026013057</v>
+        <v>2570.986562194853</v>
       </c>
       <c r="R24" t="n">
         <v>2601.025026013057</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>701.9281410547096</v>
+        <v>292.2901253264521</v>
       </c>
       <c r="C25" t="n">
-        <v>701.9281410547096</v>
+        <v>123.3539423985452</v>
       </c>
       <c r="D25" t="n">
-        <v>642.6169538662504</v>
+        <v>123.3539423985452</v>
       </c>
       <c r="E25" t="n">
-        <v>494.7038602838572</v>
+        <v>123.3539423985452</v>
       </c>
       <c r="F25" t="n">
-        <v>347.8139127859469</v>
+        <v>123.3539423985452</v>
       </c>
       <c r="G25" t="n">
-        <v>347.8139127859469</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="H25" t="n">
-        <v>199.7732636891764</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="I25" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J25" t="n">
-        <v>127.1909995926189</v>
+        <v>127.1909995926188</v>
       </c>
       <c r="K25" t="n">
         <v>307.8242952223059</v>
@@ -6165,16 +6165,16 @@
         <v>1488.712387389159</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.008454575988</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q25" t="n">
-        <v>1757.786774508076</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R25" t="n">
-        <v>1757.786774508076</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S25" t="n">
-        <v>1757.786774508076</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="T25" t="n">
         <v>1535.143853057279</v>
@@ -6183,16 +6183,16 @@
         <v>1246.029799297557</v>
       </c>
       <c r="V25" t="n">
-        <v>991.3453110916702</v>
+        <v>991.3453110916697</v>
       </c>
       <c r="W25" t="n">
-        <v>701.9281410547096</v>
+        <v>701.9281410547092</v>
       </c>
       <c r="X25" t="n">
-        <v>701.9281410547096</v>
+        <v>473.9385901566918</v>
       </c>
       <c r="Y25" t="n">
-        <v>701.9281410547096</v>
+        <v>473.9385901566918</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2397.701876211741</v>
+        <v>2397.701876211743</v>
       </c>
       <c r="C26" t="n">
-        <v>2028.73935927133</v>
+        <v>2028.739359271331</v>
       </c>
       <c r="D26" t="n">
         <v>1670.47366066458</v>
@@ -6214,7 +6214,7 @@
         <v>1284.685408066336</v>
       </c>
       <c r="F26" t="n">
-        <v>873.6995032767283</v>
+        <v>873.6995032767284</v>
       </c>
       <c r="G26" t="n">
         <v>458.169833686338</v>
@@ -6226,28 +6226,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J26" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K26" t="n">
-        <v>523.9420560504748</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L26" t="n">
-        <v>1317.744053509414</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M26" t="n">
-        <v>2217.608270425835</v>
+        <v>2260.899479733737</v>
       </c>
       <c r="N26" t="n">
-        <v>3117.401233605225</v>
+        <v>2919.664081333959</v>
       </c>
       <c r="O26" t="n">
-        <v>3921.862575780414</v>
+        <v>3724.125423509148</v>
       </c>
       <c r="P26" t="n">
-        <v>4307.980928602947</v>
+        <v>4373.040184277199</v>
       </c>
       <c r="Q26" t="n">
-        <v>4718.067129459338</v>
+        <v>4783.12638513359</v>
       </c>
       <c r="R26" t="n">
         <v>4813.994185458401</v>
@@ -6256,22 +6256,22 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T26" t="n">
-        <v>4485.305403407435</v>
+        <v>4485.305403407436</v>
       </c>
       <c r="U26" t="n">
-        <v>4231.73834912644</v>
+        <v>4231.738349126441</v>
       </c>
       <c r="V26" t="n">
-        <v>3900.675461782869</v>
+        <v>3900.67546178287</v>
       </c>
       <c r="W26" t="n">
-        <v>3547.906806512755</v>
+        <v>3547.906806512756</v>
       </c>
       <c r="X26" t="n">
-        <v>3174.441048251675</v>
+        <v>3174.441048251676</v>
       </c>
       <c r="Y26" t="n">
-        <v>2784.301716275863</v>
+        <v>2784.301716275864</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J27" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K27" t="n">
-        <v>366.8518364815408</v>
+        <v>491.6819614685455</v>
       </c>
       <c r="L27" t="n">
-        <v>1048.622274594136</v>
+        <v>806.3204577307159</v>
       </c>
       <c r="M27" t="n">
-        <v>1444.195629672487</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N27" t="n">
-        <v>1855.359598011705</v>
+        <v>1604.009578841041</v>
       </c>
       <c r="O27" t="n">
-        <v>2209.274506442037</v>
+        <v>1957.924487271373</v>
       </c>
       <c r="P27" t="n">
-        <v>2473.989355903587</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q27" t="n">
         <v>2601.025026013057</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3152.487294659494</v>
+        <v>294.1404676337181</v>
       </c>
       <c r="C28" t="n">
-        <v>3152.487294659494</v>
+        <v>294.1404676337181</v>
       </c>
       <c r="D28" t="n">
-        <v>3152.487294659494</v>
+        <v>294.1404676337181</v>
       </c>
       <c r="E28" t="n">
-        <v>3152.487294659494</v>
+        <v>294.1404676337181</v>
       </c>
       <c r="F28" t="n">
-        <v>3152.487294659494</v>
+        <v>294.1404676337181</v>
       </c>
       <c r="G28" t="n">
-        <v>3152.487294659494</v>
+        <v>199.7732636891765</v>
       </c>
       <c r="H28" t="n">
-        <v>3152.487294659494</v>
+        <v>199.7732636891765</v>
       </c>
       <c r="I28" t="n">
-        <v>3152.487294659494</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="J28" t="n">
-        <v>3183.398410542945</v>
+        <v>127.1909995926188</v>
       </c>
       <c r="K28" t="n">
-        <v>3364.031706172632</v>
+        <v>307.8242952223059</v>
       </c>
       <c r="L28" t="n">
-        <v>3650.706569314554</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M28" t="n">
-        <v>3963.354140810442</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N28" t="n">
-        <v>4274.002268279693</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O28" t="n">
-        <v>4544.919798339484</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P28" t="n">
-        <v>4753.215865526313</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q28" t="n">
-        <v>4813.994185458401</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R28" t="n">
-        <v>4813.994185458401</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S28" t="n">
-        <v>4657.128058154407</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="T28" t="n">
-        <v>4434.485136703611</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="U28" t="n">
-        <v>4145.371082943889</v>
+        <v>1468.672720748353</v>
       </c>
       <c r="V28" t="n">
-        <v>3890.686594738002</v>
+        <v>1213.988232542466</v>
       </c>
       <c r="W28" t="n">
-        <v>3601.269424701041</v>
+        <v>924.5710625055053</v>
       </c>
       <c r="X28" t="n">
-        <v>3373.279873803024</v>
+        <v>696.581511607488</v>
       </c>
       <c r="Y28" t="n">
-        <v>3152.487294659494</v>
+        <v>475.7889324639578</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2397.701876211742</v>
       </c>
       <c r="C29" t="n">
-        <v>2028.739359271331</v>
+        <v>2028.73935927133</v>
       </c>
       <c r="D29" t="n">
-        <v>1670.473660664581</v>
+        <v>1670.47366066458</v>
       </c>
       <c r="E29" t="n">
-        <v>1284.685408066337</v>
+        <v>1284.685408066336</v>
       </c>
       <c r="F29" t="n">
-        <v>873.699503276729</v>
+        <v>873.6995032767284</v>
       </c>
       <c r="G29" t="n">
-        <v>458.1698336863383</v>
+        <v>458.1698336863381</v>
       </c>
       <c r="H29" t="n">
         <v>155.9037347524499</v>
@@ -6463,28 +6463,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J29" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K29" t="n">
-        <v>844.8460144959279</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L29" t="n">
-        <v>1638.648011954867</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M29" t="n">
-        <v>2538.512228871288</v>
+        <v>2387.785317648181</v>
       </c>
       <c r="N29" t="n">
-        <v>3438.305192050678</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O29" t="n">
-        <v>4242.766534225867</v>
+        <v>3659.066167834896</v>
       </c>
       <c r="P29" t="n">
-        <v>4583.232025030504</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q29" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R29" t="n">
         <v>4813.994185458401</v>
@@ -6493,7 +6493,7 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T29" t="n">
-        <v>4485.305403407436</v>
+        <v>4485.305403407435</v>
       </c>
       <c r="U29" t="n">
         <v>4231.738349126441</v>
@@ -6542,28 +6542,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J30" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K30" t="n">
-        <v>366.8518364815408</v>
+        <v>491.6819614685455</v>
       </c>
       <c r="L30" t="n">
-        <v>681.4903327437113</v>
+        <v>806.3204577307159</v>
       </c>
       <c r="M30" t="n">
-        <v>1068.015485514818</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N30" t="n">
-        <v>1855.359598011705</v>
+        <v>1604.009578841041</v>
       </c>
       <c r="O30" t="n">
-        <v>2209.274506442037</v>
+        <v>1957.924487271373</v>
       </c>
       <c r="P30" t="n">
-        <v>2473.989355903587</v>
+        <v>2235.974377226892</v>
       </c>
       <c r="Q30" t="n">
-        <v>2601.025026013057</v>
+        <v>2570.986562194853</v>
       </c>
       <c r="R30" t="n">
         <v>2601.025026013057</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.9270372410327</v>
+        <v>518.8260860294191</v>
       </c>
       <c r="C31" t="n">
-        <v>558.9908543131259</v>
+        <v>349.8899031015122</v>
       </c>
       <c r="D31" t="n">
-        <v>558.9908543131259</v>
+        <v>199.7732636891765</v>
       </c>
       <c r="E31" t="n">
-        <v>411.0777607307327</v>
+        <v>199.7732636891765</v>
       </c>
       <c r="F31" t="n">
-        <v>264.1878132328224</v>
+        <v>199.7732636891765</v>
       </c>
       <c r="G31" t="n">
-        <v>96.27988370916803</v>
+        <v>199.7732636891765</v>
       </c>
       <c r="H31" t="n">
-        <v>96.27988370916803</v>
+        <v>199.7732636891765</v>
       </c>
       <c r="I31" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J31" t="n">
-        <v>127.1909995926189</v>
+        <v>127.1909995926188</v>
       </c>
       <c r="K31" t="n">
         <v>307.8242952223059</v>
@@ -6639,34 +6639,34 @@
         <v>1488.712387389159</v>
       </c>
       <c r="P31" t="n">
-        <v>1697.008454575988</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q31" t="n">
-        <v>1757.786774508076</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R31" t="n">
-        <v>1658.734594762382</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S31" t="n">
-        <v>1658.734594762382</v>
+        <v>1562.526680460523</v>
       </c>
       <c r="T31" t="n">
-        <v>1436.091673311586</v>
+        <v>1339.883759009727</v>
       </c>
       <c r="U31" t="n">
-        <v>1146.977619551863</v>
+        <v>1339.883759009727</v>
       </c>
       <c r="V31" t="n">
-        <v>892.2931313459763</v>
+        <v>1217.881271794637</v>
       </c>
       <c r="W31" t="n">
-        <v>727.9270372410327</v>
+        <v>928.4641017576762</v>
       </c>
       <c r="X31" t="n">
-        <v>727.9270372410327</v>
+        <v>700.4745508596588</v>
       </c>
       <c r="Y31" t="n">
-        <v>727.9270372410327</v>
+        <v>700.4745508596588</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>2397.701876211742</v>
       </c>
       <c r="C32" t="n">
-        <v>2028.739359271331</v>
+        <v>2028.73935927133</v>
       </c>
       <c r="D32" t="n">
         <v>1670.47366066458</v>
       </c>
       <c r="E32" t="n">
-        <v>1284.685408066336</v>
+        <v>1284.685408066335</v>
       </c>
       <c r="F32" t="n">
-        <v>873.6995032767283</v>
+        <v>873.6995032767279</v>
       </c>
       <c r="G32" t="n">
-        <v>458.1698336863379</v>
+        <v>458.1698336863376</v>
       </c>
       <c r="H32" t="n">
         <v>155.9037347524499</v>
@@ -6700,25 +6700,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J32" t="n">
-        <v>414.5309736026618</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K32" t="n">
-        <v>789.9182099480292</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L32" t="n">
-        <v>1583.720207406969</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M32" t="n">
-        <v>2483.58442432339</v>
+        <v>2260.899479733737</v>
       </c>
       <c r="N32" t="n">
-        <v>3383.377387502779</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O32" t="n">
-        <v>4187.838729677968</v>
+        <v>3659.066167834896</v>
       </c>
       <c r="P32" t="n">
-        <v>4518.172769356252</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q32" t="n">
         <v>4718.067129459338</v>
@@ -6733,19 +6733,19 @@
         <v>4485.305403407436</v>
       </c>
       <c r="U32" t="n">
-        <v>4231.738349126441</v>
+        <v>4231.73834912644</v>
       </c>
       <c r="V32" t="n">
-        <v>3900.67546178287</v>
+        <v>3900.675461782869</v>
       </c>
       <c r="W32" t="n">
-        <v>3547.906806512756</v>
+        <v>3547.906806512755</v>
       </c>
       <c r="X32" t="n">
-        <v>3174.441048251676</v>
+        <v>3174.441048251675</v>
       </c>
       <c r="Y32" t="n">
-        <v>2784.301716275864</v>
+        <v>2784.301716275863</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J33" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K33" t="n">
-        <v>366.8518364815408</v>
+        <v>491.6819614685455</v>
       </c>
       <c r="L33" t="n">
-        <v>681.4903327437113</v>
+        <v>806.3204577307159</v>
       </c>
       <c r="M33" t="n">
-        <v>1068.015485514818</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N33" t="n">
-        <v>1855.359598011705</v>
+        <v>1604.009578841041</v>
       </c>
       <c r="O33" t="n">
-        <v>2209.274506442037</v>
+        <v>1957.924487271373</v>
       </c>
       <c r="P33" t="n">
-        <v>2473.989355903587</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q33" t="n">
         <v>2601.025026013057</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>710.1357471297141</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="C34" t="n">
-        <v>541.1995642018072</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="D34" t="n">
-        <v>391.0829247894715</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="E34" t="n">
-        <v>243.1698312070784</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="F34" t="n">
-        <v>96.27988370916803</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="G34" t="n">
-        <v>96.27988370916803</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="H34" t="n">
         <v>96.27988370916803</v>
@@ -6858,7 +6858,7 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J34" t="n">
-        <v>127.1909995926189</v>
+        <v>127.1909995926188</v>
       </c>
       <c r="K34" t="n">
         <v>307.8242952223059</v>
@@ -6876,13 +6876,13 @@
         <v>1488.712387389159</v>
       </c>
       <c r="P34" t="n">
-        <v>1697.008454575988</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q34" t="n">
-        <v>1757.786774508076</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R34" t="n">
-        <v>1757.786774508076</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S34" t="n">
         <v>1562.526680460523</v>
@@ -6891,19 +6891,19 @@
         <v>1339.883759009727</v>
       </c>
       <c r="U34" t="n">
-        <v>1050.769705250005</v>
+        <v>1050.769705250004</v>
       </c>
       <c r="V34" t="n">
-        <v>930.9283262732442</v>
+        <v>796.0852170441175</v>
       </c>
       <c r="W34" t="n">
-        <v>930.9283262732442</v>
+        <v>506.6680470071569</v>
       </c>
       <c r="X34" t="n">
-        <v>930.9283262732442</v>
+        <v>278.6784961091395</v>
       </c>
       <c r="Y34" t="n">
-        <v>710.1357471297141</v>
+        <v>244.3205328059384</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2397.701876211741</v>
+        <v>2397.701876211743</v>
       </c>
       <c r="C35" t="n">
-        <v>2028.73935927133</v>
+        <v>2028.739359271331</v>
       </c>
       <c r="D35" t="n">
         <v>1670.47366066458</v>
@@ -6925,40 +6925,40 @@
         <v>1284.685408066336</v>
       </c>
       <c r="F35" t="n">
-        <v>873.6995032767281</v>
+        <v>873.6995032767286</v>
       </c>
       <c r="G35" t="n">
-        <v>458.1698336863379</v>
+        <v>458.1698336863382</v>
       </c>
       <c r="H35" t="n">
-        <v>155.9037347524497</v>
+        <v>155.90373475245</v>
       </c>
       <c r="I35" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J35" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K35" t="n">
-        <v>844.8460144959279</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L35" t="n">
-        <v>1638.648011954867</v>
+        <v>1499.9660437218</v>
       </c>
       <c r="M35" t="n">
-        <v>2538.512228871288</v>
+        <v>1954.811862480317</v>
       </c>
       <c r="N35" t="n">
-        <v>3438.305192050678</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O35" t="n">
-        <v>4242.766534225867</v>
+        <v>3659.066167834896</v>
       </c>
       <c r="P35" t="n">
-        <v>4573.10057390415</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q35" t="n">
-        <v>4772.994934007236</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R35" t="n">
         <v>4813.994185458401</v>
@@ -6967,22 +6967,22 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T35" t="n">
-        <v>4485.305403407435</v>
+        <v>4485.305403407436</v>
       </c>
       <c r="U35" t="n">
-        <v>4231.73834912644</v>
+        <v>4231.738349126441</v>
       </c>
       <c r="V35" t="n">
-        <v>3900.675461782869</v>
+        <v>3900.675461782871</v>
       </c>
       <c r="W35" t="n">
-        <v>3547.906806512755</v>
+        <v>3547.906806512756</v>
       </c>
       <c r="X35" t="n">
-        <v>3174.441048251675</v>
+        <v>3174.441048251676</v>
       </c>
       <c r="Y35" t="n">
-        <v>2784.301716275863</v>
+        <v>2784.301716275865</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J36" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K36" t="n">
-        <v>366.8518364815408</v>
+        <v>491.6819614685455</v>
       </c>
       <c r="L36" t="n">
-        <v>681.4903327437113</v>
+        <v>806.3204577307159</v>
       </c>
       <c r="M36" t="n">
-        <v>1068.015485514818</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N36" t="n">
-        <v>1855.359598011705</v>
+        <v>1604.009578841041</v>
       </c>
       <c r="O36" t="n">
-        <v>2209.274506442037</v>
+        <v>1957.924487271373</v>
       </c>
       <c r="P36" t="n">
-        <v>2473.989355903587</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q36" t="n">
         <v>2601.025026013057</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>358.9114912392743</v>
+        <v>248.2509072568762</v>
       </c>
       <c r="C37" t="n">
-        <v>358.9114912392743</v>
+        <v>248.2509072568762</v>
       </c>
       <c r="D37" t="n">
-        <v>358.9114912392743</v>
+        <v>248.2509072568762</v>
       </c>
       <c r="E37" t="n">
-        <v>358.9114912392743</v>
+        <v>248.2509072568762</v>
       </c>
       <c r="F37" t="n">
-        <v>358.9114912392743</v>
+        <v>248.2509072568762</v>
       </c>
       <c r="G37" t="n">
-        <v>244.3205328059384</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="H37" t="n">
         <v>96.27988370916803</v>
@@ -7095,7 +7095,7 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J37" t="n">
-        <v>127.1909995926189</v>
+        <v>127.1909995926188</v>
       </c>
       <c r="K37" t="n">
         <v>307.8242952223059</v>
@@ -7113,34 +7113,34 @@
         <v>1488.712387389159</v>
       </c>
       <c r="P37" t="n">
-        <v>1697.008454575988</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q37" t="n">
-        <v>1757.786774508076</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R37" t="n">
-        <v>1757.786774508076</v>
+        <v>1658.734594762381</v>
       </c>
       <c r="S37" t="n">
-        <v>1562.526680460523</v>
+        <v>1463.474500714829</v>
       </c>
       <c r="T37" t="n">
-        <v>1339.883759009727</v>
+        <v>1240.831579264033</v>
       </c>
       <c r="U37" t="n">
-        <v>1050.769705250005</v>
+        <v>951.7175255043105</v>
       </c>
       <c r="V37" t="n">
-        <v>1050.769705250005</v>
+        <v>697.0330372984237</v>
       </c>
       <c r="W37" t="n">
-        <v>761.3525352130441</v>
+        <v>697.0330372984237</v>
       </c>
       <c r="X37" t="n">
-        <v>761.3525352130441</v>
+        <v>469.0434864004063</v>
       </c>
       <c r="Y37" t="n">
-        <v>540.559956069514</v>
+        <v>248.2509072568762</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>2028.739359271331</v>
       </c>
       <c r="D38" t="n">
-        <v>1670.473660664581</v>
+        <v>1670.47366066458</v>
       </c>
       <c r="E38" t="n">
-        <v>1284.685408066337</v>
+        <v>1284.685408066336</v>
       </c>
       <c r="F38" t="n">
-        <v>873.6995032767286</v>
+        <v>873.6995032767285</v>
       </c>
       <c r="G38" t="n">
-        <v>458.169833686338</v>
+        <v>458.1698336863381</v>
       </c>
       <c r="H38" t="n">
-        <v>155.9037347524499</v>
+        <v>155.90373475245</v>
       </c>
       <c r="I38" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J38" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K38" t="n">
-        <v>844.8460144959279</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L38" t="n">
-        <v>1638.648011954867</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M38" t="n">
-        <v>2538.512228871288</v>
+        <v>2260.899479733737</v>
       </c>
       <c r="N38" t="n">
-        <v>3438.305192050678</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O38" t="n">
-        <v>3865.774354775749</v>
+        <v>3659.066167834896</v>
       </c>
       <c r="P38" t="n">
-        <v>4514.689115543801</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q38" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R38" t="n">
         <v>4813.994185458401</v>
@@ -7204,7 +7204,7 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T38" t="n">
-        <v>4485.305403407436</v>
+        <v>4485.305403407435</v>
       </c>
       <c r="U38" t="n">
         <v>4231.738349126441</v>
@@ -7253,28 +7253,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J39" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K39" t="n">
-        <v>366.8518364815408</v>
+        <v>505.0170019625147</v>
       </c>
       <c r="L39" t="n">
-        <v>681.4903327437113</v>
+        <v>819.6554982246851</v>
       </c>
       <c r="M39" t="n">
-        <v>1444.195629672487</v>
+        <v>1206.180650995792</v>
       </c>
       <c r="N39" t="n">
-        <v>1855.359598011705</v>
+        <v>1617.34461933501</v>
       </c>
       <c r="O39" t="n">
-        <v>2209.274506442037</v>
+        <v>1971.259527765342</v>
       </c>
       <c r="P39" t="n">
-        <v>2473.989355903587</v>
+        <v>2235.974377226892</v>
       </c>
       <c r="Q39" t="n">
-        <v>2601.025026013057</v>
+        <v>2570.986562194853</v>
       </c>
       <c r="R39" t="n">
         <v>2601.025026013057</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>412.2284623295927</v>
+        <v>878.0183208776222</v>
       </c>
       <c r="C40" t="n">
-        <v>412.2284623295927</v>
+        <v>813.7515753043301</v>
       </c>
       <c r="D40" t="n">
-        <v>412.2284623295927</v>
+        <v>663.6349358919944</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2284623295927</v>
+        <v>515.7218423096012</v>
       </c>
       <c r="F40" t="n">
-        <v>412.2284623295927</v>
+        <v>515.7218423096012</v>
       </c>
       <c r="G40" t="n">
-        <v>244.3205328059384</v>
+        <v>347.8139127859469</v>
       </c>
       <c r="H40" t="n">
-        <v>96.27988370916803</v>
+        <v>199.7732636891765</v>
       </c>
       <c r="I40" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J40" t="n">
-        <v>127.1909995926189</v>
+        <v>127.1909995926188</v>
       </c>
       <c r="K40" t="n">
         <v>307.8242952223059</v>
@@ -7350,34 +7350,34 @@
         <v>1488.712387389159</v>
       </c>
       <c r="P40" t="n">
-        <v>1697.008454575988</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q40" t="n">
-        <v>1757.786774508076</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R40" t="n">
-        <v>1757.786774508076</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S40" t="n">
-        <v>1562.526680460523</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="T40" t="n">
-        <v>1339.883759009727</v>
+        <v>1535.143853057279</v>
       </c>
       <c r="U40" t="n">
-        <v>1050.769705250005</v>
+        <v>1535.143853057279</v>
       </c>
       <c r="V40" t="n">
-        <v>796.0852170441179</v>
+        <v>1280.459364851392</v>
       </c>
       <c r="W40" t="n">
-        <v>506.6680470071573</v>
+        <v>1280.459364851392</v>
       </c>
       <c r="X40" t="n">
-        <v>412.2284623295927</v>
+        <v>1280.459364851392</v>
       </c>
       <c r="Y40" t="n">
-        <v>412.2284623295927</v>
+        <v>1059.666785707862</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>2028.739359271331</v>
       </c>
       <c r="D41" t="n">
-        <v>1670.473660664581</v>
+        <v>1670.47366066458</v>
       </c>
       <c r="E41" t="n">
-        <v>1284.685408066337</v>
+        <v>1284.685408066336</v>
       </c>
       <c r="F41" t="n">
-        <v>873.699503276729</v>
+        <v>873.6995032767284</v>
       </c>
       <c r="G41" t="n">
-        <v>458.1698336863383</v>
+        <v>458.169833686338</v>
       </c>
       <c r="H41" t="n">
         <v>155.9037347524499</v>
@@ -7411,25 +7411,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J41" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K41" t="n">
-        <v>789.9182099480292</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L41" t="n">
-        <v>1583.720207406969</v>
+        <v>1431.939825014014</v>
       </c>
       <c r="M41" t="n">
-        <v>2483.58442432339</v>
+        <v>2331.804041930435</v>
       </c>
       <c r="N41" t="n">
-        <v>3383.377387502779</v>
+        <v>3231.597005109824</v>
       </c>
       <c r="O41" t="n">
-        <v>4187.838729677968</v>
+        <v>3659.066167834896</v>
       </c>
       <c r="P41" t="n">
-        <v>4518.172769356252</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q41" t="n">
         <v>4718.067129459338</v>
@@ -7490,25 +7490,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J42" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K42" t="n">
-        <v>628.6724211239937</v>
+        <v>491.6819614685455</v>
       </c>
       <c r="L42" t="n">
-        <v>943.3109173861642</v>
+        <v>806.3204577307159</v>
       </c>
       <c r="M42" t="n">
-        <v>1329.836070157271</v>
+        <v>1236.219114813997</v>
       </c>
       <c r="N42" t="n">
-        <v>1855.359598011705</v>
+        <v>1647.383083153214</v>
       </c>
       <c r="O42" t="n">
-        <v>2209.274506442037</v>
+        <v>2001.297991583547</v>
       </c>
       <c r="P42" t="n">
-        <v>2473.989355903587</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q42" t="n">
         <v>2601.025026013057</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>581.1646452574996</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="C43" t="n">
-        <v>412.2284623295927</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="D43" t="n">
-        <v>412.2284623295927</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2284623295927</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="F43" t="n">
-        <v>412.2284623295927</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="G43" t="n">
-        <v>244.3205328059384</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="H43" t="n">
         <v>96.27988370916803</v>
@@ -7569,7 +7569,7 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J43" t="n">
-        <v>127.1909995926189</v>
+        <v>127.1909995926188</v>
       </c>
       <c r="K43" t="n">
         <v>307.8242952223059</v>
@@ -7587,34 +7587,34 @@
         <v>1488.712387389159</v>
       </c>
       <c r="P43" t="n">
-        <v>1697.008454575988</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q43" t="n">
-        <v>1757.786774508076</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R43" t="n">
-        <v>1757.786774508076</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S43" t="n">
-        <v>1757.786774508076</v>
+        <v>1600.920647204082</v>
       </c>
       <c r="T43" t="n">
-        <v>1535.143853057279</v>
+        <v>1378.277725753285</v>
       </c>
       <c r="U43" t="n">
-        <v>1280.219831022717</v>
+        <v>1089.163671993563</v>
       </c>
       <c r="V43" t="n">
-        <v>1280.219831022717</v>
+        <v>834.4791837876762</v>
       </c>
       <c r="W43" t="n">
-        <v>990.8026609857567</v>
+        <v>545.0620137507156</v>
       </c>
       <c r="X43" t="n">
-        <v>762.8131100877393</v>
+        <v>317.0724628526982</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.8131100877393</v>
+        <v>96.27988370916803</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2397.701876211742</v>
+        <v>2397.70187621174</v>
       </c>
       <c r="C44" t="n">
-        <v>2028.739359271331</v>
+        <v>2028.739359271329</v>
       </c>
       <c r="D44" t="n">
-        <v>1670.47366066458</v>
+        <v>1670.473660664579</v>
       </c>
       <c r="E44" t="n">
-        <v>1284.685408066336</v>
+        <v>1284.685408066335</v>
       </c>
       <c r="F44" t="n">
-        <v>873.6995032767283</v>
+        <v>873.6995032767272</v>
       </c>
       <c r="G44" t="n">
-        <v>458.1698336863379</v>
+        <v>458.1698336863374</v>
       </c>
       <c r="H44" t="n">
         <v>155.9037347524499</v>
@@ -7648,28 +7648,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J44" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K44" t="n">
-        <v>536.3967445325131</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L44" t="n">
-        <v>1330.198741991453</v>
+        <v>1392.569058570274</v>
       </c>
       <c r="M44" t="n">
-        <v>2230.062958907874</v>
+        <v>2292.433275486695</v>
       </c>
       <c r="N44" t="n">
-        <v>3129.855922087263</v>
+        <v>3192.226238666085</v>
       </c>
       <c r="O44" t="n">
-        <v>3934.317264262453</v>
+        <v>3659.066167834896</v>
       </c>
       <c r="P44" t="n">
-        <v>4583.232025030504</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q44" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R44" t="n">
         <v>4813.994185458401</v>
@@ -7678,22 +7678,22 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T44" t="n">
-        <v>4485.305403407436</v>
+        <v>4485.305403407434</v>
       </c>
       <c r="U44" t="n">
-        <v>4231.738349126441</v>
+        <v>4231.738349126439</v>
       </c>
       <c r="V44" t="n">
-        <v>3900.67546178287</v>
+        <v>3900.675461782868</v>
       </c>
       <c r="W44" t="n">
-        <v>3547.906806512756</v>
+        <v>3547.906806512754</v>
       </c>
       <c r="X44" t="n">
-        <v>3174.441048251676</v>
+        <v>3174.441048251674</v>
       </c>
       <c r="Y44" t="n">
-        <v>2784.301716275864</v>
+        <v>2784.301716275862</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J45" t="n">
-        <v>167.3045479414941</v>
+        <v>167.304547941494</v>
       </c>
       <c r="K45" t="n">
-        <v>628.6724211239937</v>
+        <v>366.8518364815408</v>
       </c>
       <c r="L45" t="n">
-        <v>943.3109173861642</v>
+        <v>681.4903327437112</v>
       </c>
       <c r="M45" t="n">
-        <v>1329.836070157271</v>
+        <v>1128.917488718949</v>
       </c>
       <c r="N45" t="n">
-        <v>1741.000038496489</v>
+        <v>1540.081457058167</v>
       </c>
       <c r="O45" t="n">
-        <v>2094.914946926821</v>
+        <v>1893.9963654885</v>
       </c>
       <c r="P45" t="n">
-        <v>2359.629796388371</v>
+        <v>2473.989355903587</v>
       </c>
       <c r="Q45" t="n">
         <v>2601.025026013057</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>368.7094466170834</v>
+        <v>186.8232881179329</v>
       </c>
       <c r="C46" t="n">
-        <v>199.7732636891764</v>
+        <v>186.8232881179329</v>
       </c>
       <c r="D46" t="n">
-        <v>199.7732636891764</v>
+        <v>186.8232881179329</v>
       </c>
       <c r="E46" t="n">
-        <v>199.7732636891764</v>
+        <v>186.8232881179329</v>
       </c>
       <c r="F46" t="n">
-        <v>199.7732636891764</v>
+        <v>186.8232881179329</v>
       </c>
       <c r="G46" t="n">
-        <v>199.7732636891764</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="H46" t="n">
-        <v>199.7732636891764</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="I46" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J46" t="n">
-        <v>127.1909995926189</v>
+        <v>127.1909995926188</v>
       </c>
       <c r="K46" t="n">
         <v>307.8242952223059</v>
@@ -7824,34 +7824,34 @@
         <v>1488.712387389159</v>
       </c>
       <c r="P46" t="n">
-        <v>1697.008454575988</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q46" t="n">
-        <v>1757.786774508076</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R46" t="n">
-        <v>1658.734594762382</v>
+        <v>1658.734594762381</v>
       </c>
       <c r="S46" t="n">
-        <v>1463.47450071483</v>
+        <v>1463.474500714829</v>
       </c>
       <c r="T46" t="n">
-        <v>1463.47450071483</v>
+        <v>1240.831579264033</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.824529694758</v>
+        <v>951.7175255043105</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1400414888706</v>
+        <v>697.0330372984237</v>
       </c>
       <c r="W46" t="n">
-        <v>999.1400414888706</v>
+        <v>407.6158672614631</v>
       </c>
       <c r="X46" t="n">
-        <v>771.1504905908532</v>
+        <v>407.6158672614631</v>
       </c>
       <c r="Y46" t="n">
-        <v>550.3579114473231</v>
+        <v>186.8232881179329</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,10 +8072,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8540,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>297.2641282169658</v>
+        <v>96.31519410251116</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>115.5147065810264</v>
+        <v>43.81162051734708</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>15.1797871666698</v>
+        <v>15.17978716666983</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>128.1675130448933</v>
       </c>
       <c r="O14" t="n">
-        <v>59.45416081480477</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>43.81162051734694</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>253.8889082531962</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>15.1797871666698</v>
+        <v>15.17978716666983</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9172,10 +9172,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>72.23219446488531</v>
+        <v>128.1675130448934</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>43.81162051734694</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>43.81162051734708</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>15.1797871666698</v>
+        <v>15.17978716666983</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>99.56616654262828</v>
       </c>
       <c r="R20" t="n">
-        <v>12.5804934162004</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>253.8889082531962</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>43.81162051734708</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>15.1797871666698</v>
+        <v>15.17978716666983</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>268.6627817147016</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>128.1675130448934</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>379.979943593605</v>
+        <v>13.4697378726961</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>15.1797871666698</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>193.8839329178753</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>56.34779105479731</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>9.139598290145784</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>43.81162051734708</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>15.1797871666698</v>
+        <v>15.17978716666983</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10120,22 +10120,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>128.1675130448934</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>10.23378901651847</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>379.9799435936048</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>13.4697378726961</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>15.1797871666698</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,25 +10351,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>99.56616654262785</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>128.1675130448933</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>379.9799435936048</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>43.81162051734708</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>15.1797871666698</v>
+        <v>15.17978716666983</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>108.4818031833597</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10603,13 +10603,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>10.23378901651878</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>379.9799435936048</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>43.81162051734708</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>15.1797871666698</v>
+        <v>15.17978716666983</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,22 +10831,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>128.1675130448933</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>69.23526210778138</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>13.4697378726961</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>379.979943593605</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>15.1797871666698</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>268.6627817147016</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>39.76845095327252</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11074,13 +11074,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>43.81162051734708</v>
       </c>
       <c r="N42" t="n">
-        <v>115.5147065810262</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>15.1797871666698</v>
+        <v>15.17978716666983</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>12.58049341620045</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11311,16 +11311,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>39.76845095327258</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>61.5171749536679</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>115.5147065810263</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>15.1797871666698</v>
+        <v>15.17978716666983</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.236344360222574e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.06165794823691</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.3074931070767</v>
       </c>
       <c r="T13" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>8.096112640740785</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>230.8129956860379</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.2288502284178</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.06165794823691</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>38.01002707612321</v>
       </c>
       <c r="T16" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>216.1923908195725</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H19" t="n">
         <v>146.5602426058027</v>
       </c>
       <c r="I19" t="n">
-        <v>89.53107338854532</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.06165794823691</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>38.01002707612321</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.222913222125</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.2288502284178</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I22" t="n">
         <v>102.4584461802083</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>38.01002707612321</v>
       </c>
       <c r="T22" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>204.6706005506587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>89.89739770163769</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2288502284178</v>
+        <v>139.4255321259344</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.06165794823691</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S25" t="n">
         <v>193.3074931070767</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2288502284178</v>
+        <v>72.80531832332157</v>
       </c>
       <c r="H28" t="n">
         <v>146.5602426058027</v>
       </c>
       <c r="I28" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.06165794823691</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S28" t="n">
-        <v>38.01002707612233</v>
+        <v>193.3074931070767</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H31" t="n">
         <v>146.5602426058027</v>
       </c>
       <c r="I31" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S31" t="n">
-        <v>193.3074931070767</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>131.3551809808891</v>
       </c>
       <c r="W31" t="n">
-        <v>123.8005651726968</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.2288502284178</v>
       </c>
       <c r="H34" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>102.4584461802083</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>98.06165794823691</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.4946781368351</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>184.5702696819257</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>52.78380137941531</v>
+        <v>15.7775369161867</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I37" t="n">
         <v>102.4584461802083</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>98.06165794823691</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>103.6227429810687</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>98.06165794823691</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>193.3074931070767</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>132.2144665582482</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I43" t="n">
         <v>102.4584461802083</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>98.06165794823691</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S43" t="n">
-        <v>193.3074931070767</v>
+        <v>38.01002707612321</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>33.8481314079086</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.2288502284178</v>
+        <v>76.59087986374054</v>
       </c>
       <c r="H46" t="n">
         <v>146.5602426058027</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>78.66944191225363</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>716101.3518457832</v>
+        <v>716101.3518457833</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>716101.3518457833</v>
+        <v>716101.3518457834</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>716101.3518457833</v>
+        <v>716101.3518457834</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>716101.3518457833</v>
+        <v>716101.3518457834</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>716101.3518457833</v>
+        <v>716101.3518457834</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>716101.3518457833</v>
+        <v>716101.3518457834</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>716101.3518457833</v>
+        <v>716101.3518457834</v>
       </c>
     </row>
   </sheetData>
@@ -26316,34 +26316,34 @@
         <v>738937.5928778552</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
-        <v>710018.0330833023</v>
+        <v>710018.0330833017</v>
       </c>
       <c r="F2" t="n">
         <v>710018.0330833022</v>
       </c>
       <c r="G2" t="n">
-        <v>710018.0330833022</v>
+        <v>710018.0330833021</v>
       </c>
       <c r="H2" t="n">
-        <v>710018.0330833023</v>
+        <v>710018.0330833024</v>
       </c>
       <c r="I2" t="n">
-        <v>710018.0330833022</v>
+        <v>710018.0330833019</v>
       </c>
       <c r="J2" t="n">
-        <v>710018.0330833021</v>
+        <v>710018.033083302</v>
       </c>
       <c r="K2" t="n">
         <v>710018.033083302</v>
       </c>
       <c r="L2" t="n">
-        <v>710018.0330833026</v>
+        <v>710018.0330833022</v>
       </c>
       <c r="M2" t="n">
         <v>710018.0330833023</v>
@@ -26352,10 +26352,10 @@
         <v>710018.0330833021</v>
       </c>
       <c r="O2" t="n">
-        <v>710018.0330833024</v>
+        <v>710018.0330833021</v>
       </c>
       <c r="P2" t="n">
-        <v>710018.0330833023</v>
+        <v>710018.0330833022</v>
       </c>
     </row>
     <row r="3">
@@ -26426,40 +26426,40 @@
         <v>354433.2672769093</v>
       </c>
       <c r="E4" t="n">
-        <v>46319.07931432888</v>
+        <v>46319.0793143289</v>
       </c>
       <c r="F4" t="n">
-        <v>46319.07931432888</v>
+        <v>46319.0793143289</v>
       </c>
       <c r="G4" t="n">
+        <v>46319.0793143289</v>
+      </c>
+      <c r="H4" t="n">
+        <v>46319.07931432889</v>
+      </c>
+      <c r="I4" t="n">
+        <v>46319.0793143289</v>
+      </c>
+      <c r="J4" t="n">
+        <v>46319.07931432889</v>
+      </c>
+      <c r="K4" t="n">
+        <v>46319.0793143289</v>
+      </c>
+      <c r="L4" t="n">
+        <v>46319.0793143289</v>
+      </c>
+      <c r="M4" t="n">
         <v>46319.07931432886</v>
       </c>
-      <c r="H4" t="n">
+      <c r="N4" t="n">
         <v>46319.07931432886</v>
       </c>
-      <c r="I4" t="n">
-        <v>46319.07931432889</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="O4" t="n">
         <v>46319.0793143289</v>
       </c>
-      <c r="K4" t="n">
-        <v>46319.07931432888</v>
-      </c>
-      <c r="L4" t="n">
-        <v>46319.07931432888</v>
-      </c>
-      <c r="M4" t="n">
-        <v>46319.07931432888</v>
-      </c>
-      <c r="N4" t="n">
-        <v>46319.07931432888</v>
-      </c>
-      <c r="O4" t="n">
-        <v>46319.07931432889</v>
-      </c>
       <c r="P4" t="n">
-        <v>46319.07931432886</v>
+        <v>46319.0793143289</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>255453.6253056365</v>
       </c>
       <c r="C6" t="n">
-        <v>336223.0568371842</v>
+        <v>336223.056837184</v>
       </c>
       <c r="D6" t="n">
-        <v>336223.0568371844</v>
+        <v>336223.056837184</v>
       </c>
       <c r="E6" t="n">
-        <v>-503222.8271576446</v>
+        <v>-504026.1482630495</v>
       </c>
       <c r="F6" t="n">
-        <v>569223.7029033832</v>
+        <v>568420.3817979789</v>
       </c>
       <c r="G6" t="n">
-        <v>569223.7029033832</v>
+        <v>568420.3817979789</v>
       </c>
       <c r="H6" t="n">
-        <v>569223.7029033834</v>
+        <v>568420.3817979791</v>
       </c>
       <c r="I6" t="n">
-        <v>569223.7029033832</v>
+        <v>568420.3817979787</v>
       </c>
       <c r="J6" t="n">
-        <v>506163.7603042769</v>
+        <v>505360.4391988725</v>
       </c>
       <c r="K6" t="n">
-        <v>569223.7029033829</v>
+        <v>568420.3817979787</v>
       </c>
       <c r="L6" t="n">
-        <v>569223.7029033836</v>
+        <v>568420.3817979789</v>
       </c>
       <c r="M6" t="n">
-        <v>329368.7760006077</v>
+        <v>328565.4548952035</v>
       </c>
       <c r="N6" t="n">
-        <v>569223.7029033832</v>
+        <v>568420.3817979789</v>
       </c>
       <c r="O6" t="n">
-        <v>569223.7029033834</v>
+        <v>568420.3817979789</v>
       </c>
       <c r="P6" t="n">
-        <v>569223.7029033834</v>
+        <v>568420.3817979789</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>977.1806993863503</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="F3" t="n">
-        <v>977.1806993863503</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="G3" t="n">
-        <v>977.1806993863503</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="H3" t="n">
-        <v>977.1806993863503</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="I3" t="n">
-        <v>977.1806993863503</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="J3" t="n">
-        <v>977.1806993863503</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="K3" t="n">
-        <v>977.1806993863503</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="L3" t="n">
-        <v>977.1806993863503</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="M3" t="n">
-        <v>977.1806993863503</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="N3" t="n">
-        <v>977.1806993863503</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="O3" t="n">
-        <v>977.1806993863503</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="P3" t="n">
-        <v>977.1806993863503</v>
+        <v>977.1806993863502</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>977.1806993863503</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>962.484257486941</v>
+        <v>962.4842574869413</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>962.484257486941</v>
+        <v>962.4842574869413</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>962.484257486941</v>
+        <v>962.4842574869413</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>344.9587297138598</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>83.17903909039828</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>21.08647536425178</v>
       </c>
       <c r="E3" t="n">
-        <v>126.6932313148214</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>288.9009862035136</v>
       </c>
       <c r="Y5" t="n">
-        <v>345.7616595229184</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27706,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>23.27802172142893</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,16 +27754,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>67.81068582972321</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27821,7 +27821,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>69.0973563527908</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>110.3886183277161</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>124.2586028933485</v>
@@ -27861,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>213.0080510862378</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>171.3081882983289</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.56870935673443</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27991,7 +27991,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>60.50207587874957</v>
       </c>
     </row>
     <row r="10">
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28070,13 +28070,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
     </row>
     <row r="39">
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.928364620648642</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H11" t="n">
-        <v>40.23136417121791</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I11" t="n">
         <v>151.4482770375569</v>
@@ -31764,28 +31764,28 @@
         <v>333.4150367217779</v>
       </c>
       <c r="K11" t="n">
-        <v>499.702711113835</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L11" t="n">
         <v>619.925399873011</v>
       </c>
       <c r="M11" t="n">
-        <v>689.7864541954713</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N11" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O11" t="n">
         <v>661.8852444773142</v>
       </c>
       <c r="P11" t="n">
-        <v>564.9037429050509</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2191849280713</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R11" t="n">
-        <v>246.7651341018205</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S11" t="n">
         <v>89.517608793031</v>
@@ -31843,7 +31843,7 @@
         <v>198.5797117498243</v>
       </c>
       <c r="K12" t="n">
-        <v>339.404356691578</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L12" t="n">
         <v>456.3710426709554</v>
@@ -31852,10 +31852,10 @@
         <v>532.5634811655608</v>
       </c>
       <c r="N12" t="n">
-        <v>546.6588518199169</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O12" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P12" t="n">
         <v>401.3631442441785</v>
@@ -31864,13 +31864,13 @@
         <v>268.300632782456</v>
       </c>
       <c r="R12" t="n">
-        <v>130.4997167972942</v>
+        <v>130.4997167972941</v>
       </c>
       <c r="S12" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T12" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U12" t="n">
         <v>0.1382802876490119</v>
@@ -31913,10 +31913,10 @@
         <v>1.762129130040959</v>
       </c>
       <c r="H13" t="n">
-        <v>15.66692990163691</v>
+        <v>15.6669299016369</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J13" t="n">
         <v>124.5825294938958</v>
@@ -31943,16 +31943,16 @@
         <v>147.5542856073389</v>
       </c>
       <c r="R13" t="n">
-        <v>79.23173342893257</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S13" t="n">
-        <v>30.70910492989562</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T13" t="n">
-        <v>7.529097191993188</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09611613436587062</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.928364620648642</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H14" t="n">
-        <v>40.23136417121791</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I14" t="n">
         <v>151.4482770375569</v>
@@ -32001,28 +32001,28 @@
         <v>333.4150367217779</v>
       </c>
       <c r="K14" t="n">
-        <v>499.702711113835</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L14" t="n">
         <v>619.925399873011</v>
       </c>
       <c r="M14" t="n">
-        <v>689.7864541954713</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N14" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O14" t="n">
         <v>661.8852444773142</v>
       </c>
       <c r="P14" t="n">
-        <v>564.9037429050509</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2191849280713</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R14" t="n">
-        <v>246.7651341018205</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S14" t="n">
         <v>89.517608793031</v>
@@ -32080,7 +32080,7 @@
         <v>198.5797117498243</v>
       </c>
       <c r="K15" t="n">
-        <v>339.404356691578</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L15" t="n">
         <v>456.3710426709554</v>
@@ -32089,10 +32089,10 @@
         <v>532.5634811655608</v>
       </c>
       <c r="N15" t="n">
-        <v>546.6588518199169</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O15" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P15" t="n">
         <v>401.3631442441785</v>
@@ -32101,13 +32101,13 @@
         <v>268.300632782456</v>
       </c>
       <c r="R15" t="n">
-        <v>130.4997167972942</v>
+        <v>130.4997167972941</v>
       </c>
       <c r="S15" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T15" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U15" t="n">
         <v>0.1382802876490119</v>
@@ -32150,10 +32150,10 @@
         <v>1.762129130040959</v>
       </c>
       <c r="H16" t="n">
-        <v>15.66692990163691</v>
+        <v>15.6669299016369</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J16" t="n">
         <v>124.5825294938958</v>
@@ -32180,16 +32180,16 @@
         <v>147.5542856073389</v>
       </c>
       <c r="R16" t="n">
-        <v>79.23173342893257</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S16" t="n">
-        <v>30.70910492989562</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T16" t="n">
-        <v>7.529097191993188</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09611613436587062</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.928364620648642</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H17" t="n">
-        <v>40.23136417121791</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I17" t="n">
         <v>151.4482770375569</v>
@@ -32238,28 +32238,28 @@
         <v>333.4150367217779</v>
       </c>
       <c r="K17" t="n">
-        <v>499.702711113835</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L17" t="n">
         <v>619.925399873011</v>
       </c>
       <c r="M17" t="n">
-        <v>689.7864541954713</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N17" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O17" t="n">
         <v>661.8852444773142</v>
       </c>
       <c r="P17" t="n">
-        <v>564.9037429050509</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2191849280713</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R17" t="n">
-        <v>246.7651341018205</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S17" t="n">
         <v>89.517608793031</v>
@@ -32317,7 +32317,7 @@
         <v>198.5797117498243</v>
       </c>
       <c r="K18" t="n">
-        <v>339.404356691578</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L18" t="n">
         <v>456.3710426709554</v>
@@ -32326,10 +32326,10 @@
         <v>532.5634811655608</v>
       </c>
       <c r="N18" t="n">
-        <v>546.6588518199169</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O18" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P18" t="n">
         <v>401.3631442441785</v>
@@ -32338,13 +32338,13 @@
         <v>268.300632782456</v>
       </c>
       <c r="R18" t="n">
-        <v>130.4997167972942</v>
+        <v>130.4997167972941</v>
       </c>
       <c r="S18" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T18" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U18" t="n">
         <v>0.1382802876490119</v>
@@ -32387,10 +32387,10 @@
         <v>1.762129130040959</v>
       </c>
       <c r="H19" t="n">
-        <v>15.66692990163691</v>
+        <v>15.6669299016369</v>
       </c>
       <c r="I19" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J19" t="n">
         <v>124.5825294938958</v>
@@ -32417,16 +32417,16 @@
         <v>147.5542856073389</v>
       </c>
       <c r="R19" t="n">
-        <v>79.23173342893257</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S19" t="n">
-        <v>30.70910492989562</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T19" t="n">
-        <v>7.529097191993188</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09611613436587062</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.928364620648642</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H20" t="n">
-        <v>40.23136417121791</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I20" t="n">
         <v>151.4482770375569</v>
@@ -32475,28 +32475,28 @@
         <v>333.4150367217779</v>
       </c>
       <c r="K20" t="n">
-        <v>499.702711113835</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L20" t="n">
         <v>619.925399873011</v>
       </c>
       <c r="M20" t="n">
-        <v>689.7864541954713</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N20" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O20" t="n">
         <v>661.8852444773142</v>
       </c>
       <c r="P20" t="n">
-        <v>564.9037429050509</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2191849280713</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R20" t="n">
-        <v>246.7651341018205</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S20" t="n">
         <v>89.517608793031</v>
@@ -32554,7 +32554,7 @@
         <v>198.5797117498243</v>
       </c>
       <c r="K21" t="n">
-        <v>339.404356691578</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L21" t="n">
         <v>456.3710426709554</v>
@@ -32563,10 +32563,10 @@
         <v>532.5634811655608</v>
       </c>
       <c r="N21" t="n">
-        <v>546.6588518199169</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O21" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P21" t="n">
         <v>401.3631442441785</v>
@@ -32575,13 +32575,13 @@
         <v>268.300632782456</v>
       </c>
       <c r="R21" t="n">
-        <v>130.4997167972942</v>
+        <v>130.4997167972941</v>
       </c>
       <c r="S21" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T21" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U21" t="n">
         <v>0.1382802876490119</v>
@@ -32624,10 +32624,10 @@
         <v>1.762129130040959</v>
       </c>
       <c r="H22" t="n">
-        <v>15.66692990163691</v>
+        <v>15.6669299016369</v>
       </c>
       <c r="I22" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J22" t="n">
         <v>124.5825294938958</v>
@@ -32654,16 +32654,16 @@
         <v>147.5542856073389</v>
       </c>
       <c r="R22" t="n">
-        <v>79.23173342893257</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S22" t="n">
-        <v>30.70910492989562</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T22" t="n">
-        <v>7.529097191993188</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09611613436587062</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.928364620648642</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H23" t="n">
-        <v>40.23136417121791</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I23" t="n">
         <v>151.4482770375569</v>
@@ -32712,28 +32712,28 @@
         <v>333.4150367217779</v>
       </c>
       <c r="K23" t="n">
-        <v>499.702711113835</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L23" t="n">
         <v>619.925399873011</v>
       </c>
       <c r="M23" t="n">
-        <v>689.7864541954713</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N23" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O23" t="n">
         <v>661.8852444773142</v>
       </c>
       <c r="P23" t="n">
-        <v>564.9037429050509</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q23" t="n">
-        <v>424.2191849280713</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R23" t="n">
-        <v>246.7651341018205</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S23" t="n">
         <v>89.517608793031</v>
@@ -32791,7 +32791,7 @@
         <v>198.5797117498243</v>
       </c>
       <c r="K24" t="n">
-        <v>339.404356691578</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L24" t="n">
         <v>456.3710426709554</v>
@@ -32800,10 +32800,10 @@
         <v>532.5634811655608</v>
       </c>
       <c r="N24" t="n">
-        <v>546.6588518199169</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O24" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P24" t="n">
         <v>401.3631442441785</v>
@@ -32812,13 +32812,13 @@
         <v>268.300632782456</v>
       </c>
       <c r="R24" t="n">
-        <v>130.4997167972942</v>
+        <v>130.4997167972941</v>
       </c>
       <c r="S24" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T24" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U24" t="n">
         <v>0.1382802876490119</v>
@@ -32861,10 +32861,10 @@
         <v>1.762129130040959</v>
       </c>
       <c r="H25" t="n">
-        <v>15.66692990163691</v>
+        <v>15.6669299016369</v>
       </c>
       <c r="I25" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J25" t="n">
         <v>124.5825294938958</v>
@@ -32891,16 +32891,16 @@
         <v>147.5542856073389</v>
       </c>
       <c r="R25" t="n">
-        <v>79.23173342893257</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S25" t="n">
-        <v>30.70910492989562</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T25" t="n">
-        <v>7.529097191993188</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09611613436587062</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.928364620648642</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H26" t="n">
-        <v>40.23136417121791</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I26" t="n">
         <v>151.4482770375569</v>
@@ -32949,28 +32949,28 @@
         <v>333.4150367217779</v>
       </c>
       <c r="K26" t="n">
-        <v>499.702711113835</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L26" t="n">
         <v>619.925399873011</v>
       </c>
       <c r="M26" t="n">
-        <v>689.7864541954713</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N26" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O26" t="n">
         <v>661.8852444773142</v>
       </c>
       <c r="P26" t="n">
-        <v>564.9037429050509</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q26" t="n">
-        <v>424.2191849280713</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R26" t="n">
-        <v>246.7651341018205</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S26" t="n">
         <v>89.517608793031</v>
@@ -33028,7 +33028,7 @@
         <v>198.5797117498243</v>
       </c>
       <c r="K27" t="n">
-        <v>339.404356691578</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L27" t="n">
         <v>456.3710426709554</v>
@@ -33037,10 +33037,10 @@
         <v>532.5634811655608</v>
       </c>
       <c r="N27" t="n">
-        <v>546.6588518199169</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O27" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P27" t="n">
         <v>401.3631442441785</v>
@@ -33049,13 +33049,13 @@
         <v>268.300632782456</v>
       </c>
       <c r="R27" t="n">
-        <v>130.4997167972942</v>
+        <v>130.4997167972941</v>
       </c>
       <c r="S27" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T27" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U27" t="n">
         <v>0.1382802876490119</v>
@@ -33098,10 +33098,10 @@
         <v>1.762129130040959</v>
       </c>
       <c r="H28" t="n">
-        <v>15.66692990163691</v>
+        <v>15.6669299016369</v>
       </c>
       <c r="I28" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J28" t="n">
         <v>124.5825294938958</v>
@@ -33128,16 +33128,16 @@
         <v>147.5542856073389</v>
       </c>
       <c r="R28" t="n">
-        <v>79.23173342893257</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S28" t="n">
-        <v>30.70910492989562</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T28" t="n">
-        <v>7.529097191993188</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09611613436587062</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.928364620648642</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H29" t="n">
-        <v>40.23136417121791</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I29" t="n">
         <v>151.4482770375569</v>
@@ -33186,28 +33186,28 @@
         <v>333.4150367217779</v>
       </c>
       <c r="K29" t="n">
-        <v>499.702711113835</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L29" t="n">
         <v>619.925399873011</v>
       </c>
       <c r="M29" t="n">
-        <v>689.7864541954713</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N29" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O29" t="n">
         <v>661.8852444773142</v>
       </c>
       <c r="P29" t="n">
-        <v>564.9037429050509</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q29" t="n">
-        <v>424.2191849280713</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R29" t="n">
-        <v>246.7651341018205</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S29" t="n">
         <v>89.517608793031</v>
@@ -33265,7 +33265,7 @@
         <v>198.5797117498243</v>
       </c>
       <c r="K30" t="n">
-        <v>339.404356691578</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L30" t="n">
         <v>456.3710426709554</v>
@@ -33274,10 +33274,10 @@
         <v>532.5634811655608</v>
       </c>
       <c r="N30" t="n">
-        <v>546.6588518199169</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O30" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P30" t="n">
         <v>401.3631442441785</v>
@@ -33286,13 +33286,13 @@
         <v>268.300632782456</v>
       </c>
       <c r="R30" t="n">
-        <v>130.4997167972942</v>
+        <v>130.4997167972941</v>
       </c>
       <c r="S30" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T30" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U30" t="n">
         <v>0.1382802876490119</v>
@@ -33335,10 +33335,10 @@
         <v>1.762129130040959</v>
       </c>
       <c r="H31" t="n">
-        <v>15.66692990163691</v>
+        <v>15.6669299016369</v>
       </c>
       <c r="I31" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J31" t="n">
         <v>124.5825294938958</v>
@@ -33365,16 +33365,16 @@
         <v>147.5542856073389</v>
       </c>
       <c r="R31" t="n">
-        <v>79.23173342893257</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S31" t="n">
-        <v>30.70910492989562</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T31" t="n">
-        <v>7.529097191993188</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09611613436587062</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.928364620648642</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H32" t="n">
-        <v>40.23136417121791</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I32" t="n">
         <v>151.4482770375569</v>
@@ -33423,28 +33423,28 @@
         <v>333.4150367217779</v>
       </c>
       <c r="K32" t="n">
-        <v>499.702711113835</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L32" t="n">
         <v>619.925399873011</v>
       </c>
       <c r="M32" t="n">
-        <v>689.7864541954713</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N32" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O32" t="n">
         <v>661.8852444773142</v>
       </c>
       <c r="P32" t="n">
-        <v>564.9037429050509</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q32" t="n">
-        <v>424.2191849280713</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R32" t="n">
-        <v>246.7651341018205</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S32" t="n">
         <v>89.517608793031</v>
@@ -33502,7 +33502,7 @@
         <v>198.5797117498243</v>
       </c>
       <c r="K33" t="n">
-        <v>339.404356691578</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L33" t="n">
         <v>456.3710426709554</v>
@@ -33511,10 +33511,10 @@
         <v>532.5634811655608</v>
       </c>
       <c r="N33" t="n">
-        <v>546.6588518199169</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O33" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P33" t="n">
         <v>401.3631442441785</v>
@@ -33523,13 +33523,13 @@
         <v>268.300632782456</v>
       </c>
       <c r="R33" t="n">
-        <v>130.4997167972942</v>
+        <v>130.4997167972941</v>
       </c>
       <c r="S33" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T33" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U33" t="n">
         <v>0.1382802876490119</v>
@@ -33572,10 +33572,10 @@
         <v>1.762129130040959</v>
       </c>
       <c r="H34" t="n">
-        <v>15.66692990163691</v>
+        <v>15.6669299016369</v>
       </c>
       <c r="I34" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J34" t="n">
         <v>124.5825294938958</v>
@@ -33602,16 +33602,16 @@
         <v>147.5542856073389</v>
       </c>
       <c r="R34" t="n">
-        <v>79.23173342893257</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S34" t="n">
-        <v>30.70910492989562</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T34" t="n">
-        <v>7.529097191993188</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09611613436587062</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.928364620648642</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H35" t="n">
-        <v>40.23136417121791</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I35" t="n">
         <v>151.4482770375569</v>
@@ -33660,28 +33660,28 @@
         <v>333.4150367217779</v>
       </c>
       <c r="K35" t="n">
-        <v>499.702711113835</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L35" t="n">
         <v>619.925399873011</v>
       </c>
       <c r="M35" t="n">
-        <v>689.7864541954713</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N35" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O35" t="n">
         <v>661.8852444773142</v>
       </c>
       <c r="P35" t="n">
-        <v>564.9037429050509</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q35" t="n">
-        <v>424.2191849280713</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R35" t="n">
-        <v>246.7651341018205</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S35" t="n">
         <v>89.517608793031</v>
@@ -33739,7 +33739,7 @@
         <v>198.5797117498243</v>
       </c>
       <c r="K36" t="n">
-        <v>339.404356691578</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L36" t="n">
         <v>456.3710426709554</v>
@@ -33748,10 +33748,10 @@
         <v>532.5634811655608</v>
       </c>
       <c r="N36" t="n">
-        <v>546.6588518199169</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O36" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P36" t="n">
         <v>401.3631442441785</v>
@@ -33760,13 +33760,13 @@
         <v>268.300632782456</v>
       </c>
       <c r="R36" t="n">
-        <v>130.4997167972942</v>
+        <v>130.4997167972941</v>
       </c>
       <c r="S36" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T36" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U36" t="n">
         <v>0.1382802876490119</v>
@@ -33809,10 +33809,10 @@
         <v>1.762129130040959</v>
       </c>
       <c r="H37" t="n">
-        <v>15.66692990163691</v>
+        <v>15.6669299016369</v>
       </c>
       <c r="I37" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J37" t="n">
         <v>124.5825294938958</v>
@@ -33839,16 +33839,16 @@
         <v>147.5542856073389</v>
       </c>
       <c r="R37" t="n">
-        <v>79.23173342893257</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S37" t="n">
-        <v>30.70910492989562</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T37" t="n">
-        <v>7.529097191993188</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09611613436587062</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.928364620648642</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H38" t="n">
-        <v>40.23136417121791</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I38" t="n">
         <v>151.4482770375569</v>
@@ -33897,28 +33897,28 @@
         <v>333.4150367217779</v>
       </c>
       <c r="K38" t="n">
-        <v>499.702711113835</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L38" t="n">
         <v>619.925399873011</v>
       </c>
       <c r="M38" t="n">
-        <v>689.7864541954713</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N38" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O38" t="n">
         <v>661.8852444773142</v>
       </c>
       <c r="P38" t="n">
-        <v>564.9037429050509</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q38" t="n">
-        <v>424.2191849280713</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R38" t="n">
-        <v>246.7651341018205</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S38" t="n">
         <v>89.517608793031</v>
@@ -33976,7 +33976,7 @@
         <v>198.5797117498243</v>
       </c>
       <c r="K39" t="n">
-        <v>339.404356691578</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L39" t="n">
         <v>456.3710426709554</v>
@@ -33985,10 +33985,10 @@
         <v>532.5634811655608</v>
       </c>
       <c r="N39" t="n">
-        <v>546.6588518199169</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O39" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P39" t="n">
         <v>401.3631442441785</v>
@@ -33997,13 +33997,13 @@
         <v>268.300632782456</v>
       </c>
       <c r="R39" t="n">
-        <v>130.4997167972942</v>
+        <v>130.4997167972941</v>
       </c>
       <c r="S39" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T39" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U39" t="n">
         <v>0.1382802876490119</v>
@@ -34046,10 +34046,10 @@
         <v>1.762129130040959</v>
       </c>
       <c r="H40" t="n">
-        <v>15.66692990163691</v>
+        <v>15.6669299016369</v>
       </c>
       <c r="I40" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J40" t="n">
         <v>124.5825294938958</v>
@@ -34076,16 +34076,16 @@
         <v>147.5542856073389</v>
       </c>
       <c r="R40" t="n">
-        <v>79.23173342893257</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S40" t="n">
-        <v>30.70910492989562</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T40" t="n">
-        <v>7.529097191993188</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09611613436587062</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.928364620648642</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H41" t="n">
-        <v>40.23136417121791</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I41" t="n">
         <v>151.4482770375569</v>
@@ -34134,28 +34134,28 @@
         <v>333.4150367217779</v>
       </c>
       <c r="K41" t="n">
-        <v>499.702711113835</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L41" t="n">
         <v>619.925399873011</v>
       </c>
       <c r="M41" t="n">
-        <v>689.7864541954713</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N41" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O41" t="n">
         <v>661.8852444773142</v>
       </c>
       <c r="P41" t="n">
-        <v>564.9037429050509</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q41" t="n">
-        <v>424.2191849280713</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R41" t="n">
-        <v>246.7651341018205</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S41" t="n">
         <v>89.517608793031</v>
@@ -34213,7 +34213,7 @@
         <v>198.5797117498243</v>
       </c>
       <c r="K42" t="n">
-        <v>339.404356691578</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L42" t="n">
         <v>456.3710426709554</v>
@@ -34222,10 +34222,10 @@
         <v>532.5634811655608</v>
       </c>
       <c r="N42" t="n">
-        <v>546.6588518199169</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O42" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P42" t="n">
         <v>401.3631442441785</v>
@@ -34234,13 +34234,13 @@
         <v>268.300632782456</v>
       </c>
       <c r="R42" t="n">
-        <v>130.4997167972942</v>
+        <v>130.4997167972941</v>
       </c>
       <c r="S42" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T42" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U42" t="n">
         <v>0.1382802876490119</v>
@@ -34283,10 +34283,10 @@
         <v>1.762129130040959</v>
       </c>
       <c r="H43" t="n">
-        <v>15.66692990163691</v>
+        <v>15.6669299016369</v>
       </c>
       <c r="I43" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J43" t="n">
         <v>124.5825294938958</v>
@@ -34313,16 +34313,16 @@
         <v>147.5542856073389</v>
       </c>
       <c r="R43" t="n">
-        <v>79.23173342893257</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S43" t="n">
-        <v>30.70910492989562</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T43" t="n">
-        <v>7.529097191993188</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09611613436587062</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.928364620648642</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H44" t="n">
-        <v>40.23136417121791</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I44" t="n">
         <v>151.4482770375569</v>
@@ -34371,28 +34371,28 @@
         <v>333.4150367217779</v>
       </c>
       <c r="K44" t="n">
-        <v>499.702711113835</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L44" t="n">
         <v>619.925399873011</v>
       </c>
       <c r="M44" t="n">
-        <v>689.7864541954713</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N44" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O44" t="n">
         <v>661.8852444773142</v>
       </c>
       <c r="P44" t="n">
-        <v>564.9037429050509</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2191849280713</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R44" t="n">
-        <v>246.7651341018205</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S44" t="n">
         <v>89.517608793031</v>
@@ -34450,7 +34450,7 @@
         <v>198.5797117498243</v>
       </c>
       <c r="K45" t="n">
-        <v>339.404356691578</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L45" t="n">
         <v>456.3710426709554</v>
@@ -34459,10 +34459,10 @@
         <v>532.5634811655608</v>
       </c>
       <c r="N45" t="n">
-        <v>546.6588518199169</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O45" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P45" t="n">
         <v>401.3631442441785</v>
@@ -34471,13 +34471,13 @@
         <v>268.300632782456</v>
       </c>
       <c r="R45" t="n">
-        <v>130.4997167972942</v>
+        <v>130.4997167972941</v>
       </c>
       <c r="S45" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T45" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U45" t="n">
         <v>0.1382802876490119</v>
@@ -34520,10 +34520,10 @@
         <v>1.762129130040959</v>
       </c>
       <c r="H46" t="n">
-        <v>15.66692990163691</v>
+        <v>15.6669299016369</v>
       </c>
       <c r="I46" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J46" t="n">
         <v>124.5825294938958</v>
@@ -34550,16 +34550,16 @@
         <v>147.5542856073389</v>
       </c>
       <c r="R46" t="n">
-        <v>79.23173342893257</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S46" t="n">
-        <v>30.70910492989562</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T46" t="n">
-        <v>7.529097191993188</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09611613436587062</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,10 +34792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35260,16 +35260,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K11" t="n">
         <v>603.7582726400192</v>
       </c>
       <c r="L11" t="n">
-        <v>801.8201994534742</v>
+        <v>384.1589849030237</v>
       </c>
       <c r="M11" t="n">
-        <v>459.4402209681986</v>
+        <v>908.9537544610309</v>
       </c>
       <c r="N11" t="n">
-        <v>768.7989847942642</v>
+        <v>567.8500506798094</v>
       </c>
       <c r="O11" t="n">
         <v>812.5872143183728</v>
@@ -35430,10 +35430,10 @@
         <v>655.4694553212639</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.2284857135265</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R11" t="n">
-        <v>96.89601616067077</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>71.7420850831576</v>
+        <v>197.8331204235664</v>
       </c>
       <c r="K12" t="n">
-        <v>466.0281547297976</v>
+        <v>201.5629177172189</v>
       </c>
       <c r="L12" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M12" t="n">
         <v>390.4294472435425</v>
       </c>
       <c r="N12" t="n">
-        <v>415.3171397365836</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O12" t="n">
         <v>357.4898064952852</v>
       </c>
       <c r="P12" t="n">
-        <v>382.9034434108746</v>
+        <v>311.2003573471953</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.3188586964345</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.22334937722304</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K13" t="n">
         <v>182.4578743734213</v>
@@ -35588,7 +35588,7 @@
         <v>210.4000678654836</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35655,22 +35655,22 @@
         <v>801.8201994534742</v>
       </c>
       <c r="M14" t="n">
-        <v>908.9537544610311</v>
+        <v>459.4402209681984</v>
       </c>
       <c r="N14" t="n">
-        <v>471.5348565772984</v>
+        <v>599.7023696221916</v>
       </c>
       <c r="O14" t="n">
-        <v>491.2411938704323</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P14" t="n">
         <v>655.4694553212639</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.2284857135265</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R14" t="n">
-        <v>96.89601616067077</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>197.8331204235664</v>
       </c>
       <c r="K15" t="n">
-        <v>245.3745382345659</v>
+        <v>201.5629177172189</v>
       </c>
       <c r="L15" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M15" t="n">
         <v>390.4294472435425</v>
       </c>
       <c r="N15" t="n">
-        <v>415.3171397365836</v>
+        <v>669.2060479897797</v>
       </c>
       <c r="O15" t="n">
         <v>357.4898064952852</v>
@@ -35746,7 +35746,7 @@
         <v>267.3887368298483</v>
       </c>
       <c r="Q15" t="n">
-        <v>338.3961464322836</v>
+        <v>128.3188586964345</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.22334937722304</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K16" t="n">
         <v>182.4578743734213</v>
@@ -35825,7 +35825,7 @@
         <v>210.4000678654836</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K17" t="n">
         <v>603.7582726400192</v>
@@ -35892,10 +35892,10 @@
         <v>801.8201994534742</v>
       </c>
       <c r="M17" t="n">
-        <v>531.6724154330839</v>
+        <v>587.6077340130919</v>
       </c>
       <c r="N17" t="n">
-        <v>908.8817809892826</v>
+        <v>471.5348565772983</v>
       </c>
       <c r="O17" t="n">
         <v>812.5872143183728</v>
@@ -35904,10 +35904,10 @@
         <v>655.4694553212639</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.9134950536218</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R17" t="n">
-        <v>96.89601616067077</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>197.8331204235664</v>
       </c>
       <c r="K18" t="n">
-        <v>245.3745382345659</v>
+        <v>201.5629177172189</v>
       </c>
       <c r="L18" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M18" t="n">
         <v>390.4294472435425</v>
       </c>
       <c r="N18" t="n">
-        <v>415.3171397365836</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O18" t="n">
         <v>357.4898064952852</v>
       </c>
       <c r="P18" t="n">
-        <v>267.3887368298483</v>
+        <v>311.2003573471953</v>
       </c>
       <c r="Q18" t="n">
         <v>338.3961464322836</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.22334937722304</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K19" t="n">
         <v>182.4578743734213</v>
@@ -36062,7 +36062,7 @@
         <v>210.4000678654836</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K20" t="n">
         <v>279.6128600688544</v>
@@ -36129,22 +36129,22 @@
         <v>801.8201994534742</v>
       </c>
       <c r="M20" t="n">
-        <v>908.9537544610311</v>
+        <v>908.9537544610309</v>
       </c>
       <c r="N20" t="n">
-        <v>908.8817809892826</v>
+        <v>908.8817809892824</v>
       </c>
       <c r="O20" t="n">
         <v>812.5872143183728</v>
       </c>
       <c r="P20" t="n">
-        <v>655.4694553212639</v>
+        <v>333.6707471497812</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.9134950536218</v>
+        <v>301.47966159625</v>
       </c>
       <c r="R20" t="n">
-        <v>43.76008970388872</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>197.8331204235664</v>
       </c>
       <c r="K21" t="n">
-        <v>201.562917717219</v>
+        <v>455.4518259704151</v>
       </c>
       <c r="L21" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M21" t="n">
         <v>390.4294472435425</v>
       </c>
       <c r="N21" t="n">
-        <v>415.3171397365836</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O21" t="n">
         <v>357.4898064952852</v>
       </c>
       <c r="P21" t="n">
-        <v>311.2003573471953</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q21" t="n">
-        <v>338.3961464322836</v>
+        <v>128.3188586964345</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.22334937722304</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K22" t="n">
         <v>182.4578743734213</v>
@@ -36299,7 +36299,7 @@
         <v>210.4000678654836</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K23" t="n">
-        <v>548.275641783556</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L23" t="n">
         <v>801.8201994534742</v>
       </c>
       <c r="M23" t="n">
-        <v>908.9537544610311</v>
+        <v>587.6077340130919</v>
       </c>
       <c r="N23" t="n">
-        <v>908.8817809892826</v>
+        <v>471.5348565772983</v>
       </c>
       <c r="O23" t="n">
         <v>812.5872143183728</v>
       </c>
       <c r="P23" t="n">
-        <v>333.6707471497813</v>
+        <v>655.4694553212639</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.9134950536218</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R23" t="n">
-        <v>96.89601616067077</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>71.7420850831576</v>
+        <v>197.8331204235664</v>
       </c>
       <c r="K24" t="n">
-        <v>201.562917717219</v>
+        <v>201.5629177172189</v>
       </c>
       <c r="L24" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M24" t="n">
-        <v>770.4093908371475</v>
+        <v>403.8991851162386</v>
       </c>
       <c r="N24" t="n">
-        <v>415.3171397365836</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O24" t="n">
         <v>357.4898064952852</v>
@@ -36457,10 +36457,10 @@
         <v>267.3887368298483</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.3188586964345</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>30.34188264465099</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.22334937722304</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K25" t="n">
         <v>182.4578743734213</v>
@@ -36536,7 +36536,7 @@
         <v>210.4000678654836</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K26" t="n">
-        <v>279.6128600688544</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L26" t="n">
         <v>801.8201994534742</v>
       </c>
       <c r="M26" t="n">
-        <v>908.9537544610311</v>
+        <v>459.4402209681984</v>
       </c>
       <c r="N26" t="n">
-        <v>908.8817809892826</v>
+        <v>665.4187894951735</v>
       </c>
       <c r="O26" t="n">
         <v>812.5872143183728</v>
       </c>
       <c r="P26" t="n">
-        <v>390.0185382045786</v>
+        <v>655.4694553212639</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.2284857135265</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R26" t="n">
-        <v>96.89601616067077</v>
+        <v>31.1795962876883</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>71.7420850831576</v>
+        <v>197.8331204235664</v>
       </c>
       <c r="K27" t="n">
-        <v>201.562917717219</v>
+        <v>201.5629177172189</v>
       </c>
       <c r="L27" t="n">
-        <v>688.6570081945404</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M27" t="n">
-        <v>399.5690455336883</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N27" t="n">
-        <v>415.3171397365836</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O27" t="n">
         <v>357.4898064952852</v>
       </c>
       <c r="P27" t="n">
-        <v>267.3887368298483</v>
+        <v>311.2003573471953</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.3188586964345</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>31.22334937722304</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K28" t="n">
         <v>182.4578743734213</v>
@@ -36773,7 +36773,7 @@
         <v>210.4000678654836</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K29" t="n">
         <v>603.7582726400192</v>
@@ -36840,22 +36840,22 @@
         <v>801.8201994534742</v>
       </c>
       <c r="M29" t="n">
-        <v>908.9537544610311</v>
+        <v>587.6077340130919</v>
       </c>
       <c r="N29" t="n">
-        <v>908.8817809892826</v>
+        <v>471.5348565772983</v>
       </c>
       <c r="O29" t="n">
         <v>812.5872143183728</v>
       </c>
       <c r="P29" t="n">
-        <v>343.9045361662998</v>
+        <v>655.4694553212639</v>
       </c>
       <c r="Q29" t="n">
-        <v>201.9134950536218</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R29" t="n">
-        <v>31.17959628768833</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>71.7420850831576</v>
+        <v>197.8331204235664</v>
       </c>
       <c r="K30" t="n">
-        <v>201.562917717219</v>
+        <v>201.5629177172189</v>
       </c>
       <c r="L30" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M30" t="n">
         <v>390.4294472435425</v>
       </c>
       <c r="N30" t="n">
-        <v>795.2970833301885</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O30" t="n">
         <v>357.4898064952852</v>
       </c>
       <c r="P30" t="n">
-        <v>267.3887368298483</v>
+        <v>280.8584747025444</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.3188586964345</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>30.34188264465099</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>31.22334937722304</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K31" t="n">
         <v>182.4578743734213</v>
@@ -37010,7 +37010,7 @@
         <v>210.4000678654836</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>321.4657473671654</v>
       </c>
       <c r="K32" t="n">
-        <v>379.1790266114823</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L32" t="n">
         <v>801.8201994534742</v>
       </c>
       <c r="M32" t="n">
-        <v>908.9537544610311</v>
+        <v>459.4402209681984</v>
       </c>
       <c r="N32" t="n">
-        <v>908.8817809892826</v>
+        <v>599.7023696221916</v>
       </c>
       <c r="O32" t="n">
         <v>812.5872143183728</v>
       </c>
       <c r="P32" t="n">
-        <v>333.6707471497813</v>
+        <v>655.4694553212639</v>
       </c>
       <c r="Q32" t="n">
-        <v>201.9134950536218</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R32" t="n">
-        <v>96.89601616067077</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>71.7420850831576</v>
+        <v>197.8331204235664</v>
       </c>
       <c r="K33" t="n">
-        <v>201.562917717219</v>
+        <v>201.5629177172189</v>
       </c>
       <c r="L33" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M33" t="n">
         <v>390.4294472435425</v>
       </c>
       <c r="N33" t="n">
-        <v>795.2970833301885</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O33" t="n">
         <v>357.4898064952852</v>
       </c>
       <c r="P33" t="n">
-        <v>267.3887368298483</v>
+        <v>311.2003573471953</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.3188586964345</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>31.22334937722304</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K34" t="n">
         <v>182.4578743734213</v>
@@ -37247,7 +37247,7 @@
         <v>210.4000678654836</v>
       </c>
       <c r="Q34" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K35" t="n">
         <v>603.7582726400192</v>
       </c>
       <c r="L35" t="n">
-        <v>801.8201994534742</v>
+        <v>492.6407880863834</v>
       </c>
       <c r="M35" t="n">
-        <v>908.9537544610311</v>
+        <v>459.4402209681984</v>
       </c>
       <c r="N35" t="n">
-        <v>908.8817809892826</v>
+        <v>908.8817809892824</v>
       </c>
       <c r="O35" t="n">
         <v>812.5872143183728</v>
       </c>
       <c r="P35" t="n">
-        <v>333.6707471497813</v>
+        <v>655.4694553212639</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.9134950536218</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R35" t="n">
-        <v>41.41338530420711</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>71.7420850831576</v>
+        <v>197.8331204235664</v>
       </c>
       <c r="K36" t="n">
-        <v>201.562917717219</v>
+        <v>201.5629177172189</v>
       </c>
       <c r="L36" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M36" t="n">
         <v>390.4294472435425</v>
       </c>
       <c r="N36" t="n">
-        <v>795.2970833301885</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O36" t="n">
         <v>357.4898064952852</v>
       </c>
       <c r="P36" t="n">
-        <v>267.3887368298483</v>
+        <v>311.2003573471953</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.3188586964345</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>31.22334937722304</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K37" t="n">
         <v>182.4578743734213</v>
@@ -37484,7 +37484,7 @@
         <v>210.4000678654836</v>
       </c>
       <c r="Q37" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K38" t="n">
         <v>603.7582726400192</v>
@@ -37551,22 +37551,22 @@
         <v>801.8201994534742</v>
       </c>
       <c r="M38" t="n">
-        <v>908.9537544610311</v>
+        <v>459.4402209681984</v>
       </c>
       <c r="N38" t="n">
-        <v>908.8817809892826</v>
+        <v>599.7023696221916</v>
       </c>
       <c r="O38" t="n">
-        <v>431.7870330556275</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P38" t="n">
         <v>655.4694553212639</v>
       </c>
       <c r="Q38" t="n">
-        <v>271.1487571614032</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R38" t="n">
-        <v>31.17959628768833</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>71.7420850831576</v>
+        <v>197.8331204235664</v>
       </c>
       <c r="K39" t="n">
-        <v>201.562917717219</v>
+        <v>215.032655589915</v>
       </c>
       <c r="L39" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M39" t="n">
-        <v>770.4093908371475</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N39" t="n">
-        <v>415.3171397365836</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O39" t="n">
         <v>357.4898064952852</v>
@@ -37642,10 +37642,10 @@
         <v>267.3887368298483</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.3188586964345</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>30.34188264465099</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>31.22334937722304</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K40" t="n">
         <v>182.4578743734213</v>
@@ -37721,7 +37721,7 @@
         <v>210.4000678654836</v>
       </c>
       <c r="Q40" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K41" t="n">
-        <v>548.275641783556</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L41" t="n">
-        <v>801.8201994534742</v>
+        <v>423.9274358562963</v>
       </c>
       <c r="M41" t="n">
-        <v>908.9537544610311</v>
+        <v>908.9537544610309</v>
       </c>
       <c r="N41" t="n">
-        <v>908.8817809892826</v>
+        <v>908.8817809892824</v>
       </c>
       <c r="O41" t="n">
-        <v>812.5872143183728</v>
+        <v>431.7870330556275</v>
       </c>
       <c r="P41" t="n">
-        <v>333.6707471497813</v>
+        <v>655.4694553212639</v>
       </c>
       <c r="Q41" t="n">
-        <v>201.9134950536218</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R41" t="n">
-        <v>96.89601616067077</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>71.7420850831576</v>
+        <v>197.8331204235664</v>
       </c>
       <c r="K42" t="n">
-        <v>466.0281547297976</v>
+        <v>201.5629177172189</v>
       </c>
       <c r="L42" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M42" t="n">
-        <v>390.4294472435425</v>
+        <v>434.2410677608896</v>
       </c>
       <c r="N42" t="n">
-        <v>530.8318463176098</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O42" t="n">
         <v>357.4898064952852</v>
@@ -37879,7 +37879,7 @@
         <v>267.3887368298483</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.3188586964345</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>31.22334937722304</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K43" t="n">
         <v>182.4578743734213</v>
@@ -37958,7 +37958,7 @@
         <v>210.4000678654836</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K44" t="n">
-        <v>292.1933534850549</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L44" t="n">
-        <v>801.8201994534742</v>
+        <v>384.1589849030237</v>
       </c>
       <c r="M44" t="n">
-        <v>908.9537544610311</v>
+        <v>908.9537544610309</v>
       </c>
       <c r="N44" t="n">
-        <v>908.8817809892826</v>
+        <v>908.8817809892824</v>
       </c>
       <c r="O44" t="n">
-        <v>812.5872143183728</v>
+        <v>471.5554840089001</v>
       </c>
       <c r="P44" t="n">
         <v>655.4694553212639</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.9134950536218</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R44" t="n">
-        <v>31.17959628768833</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>71.7420850831576</v>
+        <v>71.74208508315758</v>
       </c>
       <c r="K45" t="n">
-        <v>466.0281547297976</v>
+        <v>201.5629177172189</v>
       </c>
       <c r="L45" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M45" t="n">
-        <v>390.4294472435425</v>
+        <v>451.9466221972104</v>
       </c>
       <c r="N45" t="n">
-        <v>415.3171397365836</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O45" t="n">
         <v>357.4898064952852</v>
       </c>
       <c r="P45" t="n">
-        <v>267.3887368298483</v>
+        <v>585.8515054697855</v>
       </c>
       <c r="Q45" t="n">
-        <v>243.8335652774608</v>
+        <v>128.3188586964345</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>31.22334937722304</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K46" t="n">
         <v>182.4578743734213</v>
@@ -38195,7 +38195,7 @@
         <v>210.4000678654836</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
